--- a/2303/slides_cycles_ccf_old.xlsx
+++ b/2303/slides_cycles_ccf_old.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbackus\Dropbox\Documents\Classes\Global_Economy\2303\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="288" yWindow="132" windowWidth="16584" windowHeight="9432"/>
+    <workbookView xWindow="288" yWindow="132" windowWidth="16584" windowHeight="9432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Old Version" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>Jack</author>
   </authors>
   <commentList>
-    <comment ref="H38" authorId="0">
+    <comment ref="H38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,14 +244,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +713,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -715,12 +726,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,13 +740,278 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>e12:e36</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>f12:f36</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="158226784"/>
+        <c:axId val="158226000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="158226784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158226000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="158226000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158226784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -755,7 +1025,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -767,10 +1037,12 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1095,41 +1367,58 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="99734656"/>
-        <c:axId val="99757440"/>
+        <c:smooth val="0"/>
+        <c:axId val="213407320"/>
+        <c:axId val="213416336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99734656"/>
+        <c:axId val="213407320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99757440"/>
+        <c:crossAx val="213416336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="3"/>
         <c:tickMarkSkip val="24"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99757440"/>
+        <c:axId val="213416336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="-1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99734656"/>
+        <c:crossAx val="213407320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -1137,6 +1426,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1146,9 +1436,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1162,7 +1462,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1174,10 +1474,12 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1502,41 +1804,58 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="111496192"/>
-        <c:axId val="111510272"/>
+        <c:smooth val="0"/>
+        <c:axId val="213404576"/>
+        <c:axId val="213410848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111496192"/>
+        <c:axId val="213404576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111510272"/>
+        <c:crossAx val="213410848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="3"/>
         <c:tickMarkSkip val="24"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111510272"/>
+        <c:axId val="213410848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="-1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111496192"/>
+        <c:crossAx val="213404576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -1544,6 +1863,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1553,9 +1873,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1569,6 +1899,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1580,10 +1911,12 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1908,41 +2241,58 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="111530368"/>
-        <c:axId val="111531904"/>
+        <c:smooth val="0"/>
+        <c:axId val="213403400"/>
+        <c:axId val="213412024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111530368"/>
+        <c:axId val="213403400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111531904"/>
+        <c:crossAx val="213412024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="3"/>
         <c:tickMarkSkip val="24"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111531904"/>
+        <c:axId val="213412024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="-1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111530368"/>
+        <c:crossAx val="213403400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -1950,6 +2300,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1959,9 +2310,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1975,6 +2336,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1986,10 +2348,12 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2314,40 +2678,57 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="62882944"/>
-        <c:axId val="62884480"/>
+        <c:smooth val="0"/>
+        <c:axId val="213405752"/>
+        <c:axId val="213404968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62882944"/>
+        <c:axId val="213405752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62884480"/>
+        <c:crossAx val="213404968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickMarkSkip val="24"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62884480"/>
+        <c:axId val="213404968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="-1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62882944"/>
+        <c:crossAx val="213405752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -2355,6 +2736,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2364,7 +2746,598 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2498,7 +3471,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CCF Calculator"/>
@@ -3401,7 +4374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3433,9 +4406,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3467,6 +4441,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3642,14 +4617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="3.77734375" customWidth="1"/>
@@ -3657,20 +4632,20 @@
     <col min="11" max="11" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="15.6">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3692,7 +4667,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>32874</v>
       </c>
@@ -3714,7 +4689,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>32905</v>
       </c>
@@ -3736,7 +4711,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>32933</v>
       </c>
@@ -3758,7 +4733,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>32964</v>
       </c>
@@ -3780,7 +4755,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>32994</v>
       </c>
@@ -3800,7 +4775,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>33025</v>
       </c>
@@ -3824,7 +4799,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>33055</v>
       </c>
@@ -3851,7 +4826,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>33086</v>
       </c>
@@ -3878,7 +4853,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>33117</v>
       </c>
@@ -3905,7 +4880,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>33147</v>
       </c>
@@ -3932,7 +4907,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>33178</v>
       </c>
@@ -3959,7 +4934,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="11"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>33208</v>
       </c>
@@ -3979,7 +4954,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="11"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>33239</v>
       </c>
@@ -4001,7 +4976,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>33270</v>
       </c>
@@ -4023,7 +4998,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>33298</v>
       </c>
@@ -4045,7 +5020,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>33329</v>
       </c>
@@ -4065,7 +5040,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>33359</v>
       </c>
@@ -4087,7 +5062,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="16"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>33390</v>
       </c>
@@ -4098,7 +5073,7 @@
         <v>-1.7903100000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>33420</v>
       </c>
@@ -4109,7 +5084,7 @@
         <v>-1.67333</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>33451</v>
       </c>
@@ -4120,7 +5095,7 @@
         <v>-1.80569</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>33482</v>
       </c>
@@ -4131,7 +5106,7 @@
         <v>-1.14662</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>33512</v>
       </c>
@@ -4142,7 +5117,7 @@
         <v>-0.61031000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>33543</v>
       </c>
@@ -4153,7 +5128,7 @@
         <v>0.50095999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>33573</v>
       </c>
@@ -4164,7 +5139,7 @@
         <v>0.83669000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>33604</v>
       </c>
@@ -4175,7 +5150,7 @@
         <v>0.64703999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>33635</v>
       </c>
@@ -4186,7 +5161,7 @@
         <v>2.08778</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>33664</v>
       </c>
@@ -4197,7 +5172,7 @@
         <v>3.4373200000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>33695</v>
       </c>
@@ -4208,7 +5183,7 @@
         <v>4.0041500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33725</v>
       </c>
@@ -4219,7 +5194,7 @@
         <v>3.3349700000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33756</v>
       </c>
@@ -4230,7 +5205,7 @@
         <v>2.32586</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33786</v>
       </c>
@@ -4241,7 +5216,7 @@
         <v>3.2377799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>33817</v>
       </c>
@@ -4252,7 +5227,7 @@
         <v>2.56799</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>33848</v>
       </c>
@@ -4263,7 +5238,7 @@
         <v>1.9007400000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>33878</v>
       </c>
@@ -4274,7 +5249,7 @@
         <v>2.9234900000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>33909</v>
       </c>
@@ -4285,7 +5260,7 @@
         <v>3.4649899999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>33939</v>
       </c>
@@ -4296,7 +5271,7 @@
         <v>3.8682300000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>33970</v>
       </c>
@@ -4307,7 +5282,7 @@
         <v>5.0402699999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>34001</v>
       </c>
@@ -4318,7 +5293,7 @@
         <v>4.6099399999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>34029</v>
       </c>
@@ -4329,7 +5304,7 @@
         <v>3.7456499999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>34060</v>
       </c>
@@ -4340,7 +5315,7 @@
         <v>3.3210799999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>34090</v>
       </c>
@@ -4351,7 +5326,7 @@
         <v>2.5932499999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>34121</v>
       </c>
@@ -4362,7 +5337,7 @@
         <v>2.8126099999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>34151</v>
       </c>
@@ -4373,7 +5348,7 @@
         <v>2.2442199999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>34182</v>
       </c>
@@ -4384,7 +5359,7 @@
         <v>2.7173699999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>34213</v>
       </c>
@@ -4395,7 +5370,7 @@
         <v>2.9809800000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>34243</v>
       </c>
@@ -4406,7 +5381,7 @@
         <v>2.9333800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>34274</v>
       </c>
@@ -4417,7 +5392,7 @@
         <v>2.9200900000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>34304</v>
       </c>
@@ -4428,7 +5403,7 @@
         <v>3.41431</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>34335</v>
       </c>
@@ -4439,7 +5414,7 @@
         <v>3.31942</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>34366</v>
       </c>
@@ -4450,7 +5425,7 @@
         <v>2.9935499999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>34394</v>
       </c>
@@ -4461,7 +5436,7 @@
         <v>4.0913700000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>34425</v>
       </c>
@@ -4472,7 +5447,7 @@
         <v>4.33026</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>34455</v>
       </c>
@@ -4483,7 +5458,7 @@
         <v>5.2727700000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>34486</v>
       </c>
@@ -4494,7 +5469,7 @@
         <v>5.7526999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>34516</v>
       </c>
@@ -4505,7 +5480,7 @@
         <v>5.59537</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>34547</v>
       </c>
@@ -4516,7 +5491,7 @@
         <v>6.2384899999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>34578</v>
       </c>
@@ -4527,7 +5502,7 @@
         <v>6.0747999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>34608</v>
       </c>
@@ -4538,7 +5513,7 @@
         <v>6.2188800000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>34639</v>
       </c>
@@ -4549,7 +5524,7 @@
         <v>6.46706</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>34669</v>
       </c>
@@ -4560,7 +5535,7 @@
         <v>7.0388799999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>34700</v>
       </c>
@@ -4571,7 +5546,7 @@
         <v>6.8182099999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>34731</v>
       </c>
@@ -4582,7 +5557,7 @@
         <v>6.6956100000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>34759</v>
       </c>
@@ -4593,7 +5568,7 @@
         <v>5.7787600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>34790</v>
       </c>
@@ -4604,7 +5579,7 @@
         <v>5.1745900000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>34820</v>
       </c>
@@ -4615,7 +5590,7 @@
         <v>4.8758699999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>34851</v>
       </c>
@@ -4626,7 +5601,7 @@
         <v>4.5637400000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>34881</v>
       </c>
@@ -4637,7 +5612,7 @@
         <v>3.9969899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>34912</v>
       </c>
@@ -4648,7 +5623,7 @@
         <v>4.7711199999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>34943</v>
       </c>
@@ -4659,7 +5634,7 @@
         <v>4.8249700000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>34973</v>
       </c>
@@ -4670,7 +5645,7 @@
         <v>3.7331500000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>35004</v>
       </c>
@@ -4681,7 +5656,7 @@
         <v>3.3409800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>35034</v>
       </c>
@@ -4692,7 +5667,7 @@
         <v>2.6692200000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>35065</v>
       </c>
@@ -4703,7 +5678,7 @@
         <v>1.79393</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>35096</v>
       </c>
@@ -4714,7 +5689,7 @@
         <v>3.4835799999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>35125</v>
       </c>
@@ -4725,7 +5700,7 @@
         <v>3.15801</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>35156</v>
       </c>
@@ -4736,7 +5711,7 @@
         <v>4.0665399999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>35186</v>
       </c>
@@ -4747,7 +5722,7 @@
         <v>4.5160999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>35217</v>
       </c>
@@ -4758,7 +5733,7 @@
         <v>5.0620599999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>35247</v>
       </c>
@@ -4769,7 +5744,7 @@
         <v>5.3286199999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>35278</v>
       </c>
@@ -4780,7 +5755,7 @@
         <v>4.6359399999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>35309</v>
       </c>
@@ -4791,7 +5766,7 @@
         <v>4.8045400000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>35339</v>
       </c>
@@ -4802,7 +5777,7 @@
         <v>4.9954799999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>35370</v>
       </c>
@@ -4813,7 +5788,7 @@
         <v>5.585</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>35400</v>
       </c>
@@ -4824,7 +5799,7 @@
         <v>5.8527300000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>35431</v>
       </c>
@@ -4835,7 +5810,7 @@
         <v>6.6759899999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>35462</v>
       </c>
@@ -4846,7 +5821,7 @@
         <v>6.2738100000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>35490</v>
       </c>
@@ -4857,7 +5832,7 @@
         <v>7.2570100000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>35521</v>
       </c>
@@ -4868,7 +5843,7 @@
         <v>6.4139099999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>35551</v>
       </c>
@@ -4879,7 +5854,7 @@
         <v>6.4069799999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>35582</v>
       </c>
@@ -4890,7 +5865,7 @@
         <v>5.9460600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>35612</v>
       </c>
@@ -4901,7 +5876,7 @@
         <v>6.7335000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>35643</v>
       </c>
@@ -4912,7 +5887,7 @@
         <v>7.4483199999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>35674</v>
       </c>
@@ -4923,7 +5898,7 @@
         <v>7.8115600000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>35704</v>
       </c>
@@ -4934,7 +5909,7 @@
         <v>8.5443899999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>35735</v>
       </c>
@@ -4945,7 +5920,7 @@
         <v>8.6165099999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>35765</v>
       </c>
@@ -4956,7 +5931,7 @@
         <v>8.3074999999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>35796</v>
       </c>
@@ -4967,7 +5942,7 @@
         <v>8.7200399999999991</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>35827</v>
       </c>
@@ -4978,7 +5953,7 @@
         <v>7.5133999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>35855</v>
       </c>
@@ -4989,7 +5964,7 @@
         <v>6.7634600000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>35886</v>
       </c>
@@ -5000,7 +5975,7 @@
         <v>7.1221500000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>35916</v>
       </c>
@@ -5011,7 +5986,7 @@
         <v>7.1010799999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>35947</v>
       </c>
@@ -5022,7 +5997,7 @@
         <v>5.9965900000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>35977</v>
       </c>
@@ -5033,7 +6008,7 @@
         <v>4.9060800000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>36008</v>
       </c>
@@ -5044,7 +6019,7 @@
         <v>5.7304599999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>36039</v>
       </c>
@@ -5055,7 +6030,7 @@
         <v>4.4806499999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>36069</v>
       </c>
@@ -5066,7 +6041,7 @@
         <v>4.5948500000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>36100</v>
       </c>
@@ -5077,7 +6052,7 @@
         <v>3.58264</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>36130</v>
       </c>
@@ -5088,7 +6063,7 @@
         <v>3.5820599999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>36161</v>
       </c>
@@ -5099,7 +6074,7 @@
         <v>3.5336799999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>36192</v>
       </c>
@@ -5110,7 +6085,7 @@
         <v>3.89032</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>36220</v>
       </c>
@@ -5121,7 +6096,7 @@
         <v>4.0449400000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>36251</v>
       </c>
@@ -5132,7 +6107,7 @@
         <v>3.8896199999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>36281</v>
       </c>
@@ -5143,7 +6118,7 @@
         <v>3.9643799999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>36312</v>
       </c>
@@ -5154,7 +6129,7 @@
         <v>4.3744300000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>36342</v>
       </c>
@@ -5165,7 +6140,7 @@
         <v>5.53057</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>36373</v>
       </c>
@@ -5176,7 +6151,7 @@
         <v>3.77183</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>36404</v>
       </c>
@@ -5187,7 +6162,7 @@
         <v>3.81589</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>36434</v>
       </c>
@@ -5198,7 +6173,7 @@
         <v>4.3154500000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>36465</v>
       </c>
@@ -5209,7 +6184,7 @@
         <v>4.92903</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>36495</v>
       </c>
@@ -5220,7 +6195,7 @@
         <v>5.3910299999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>36526</v>
       </c>
@@ -5231,7 +6206,7 @@
         <v>5.0027299999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>36557</v>
       </c>
@@ -5242,7 +6217,7 @@
         <v>4.9447999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>36586</v>
       </c>
@@ -5253,7 +6228,7 @@
         <v>5.1386799999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>36617</v>
       </c>
@@ -5264,7 +6239,7 @@
         <v>5.5534100000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>36647</v>
       </c>
@@ -5275,7 +6250,7 @@
         <v>4.9326499999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>36678</v>
       </c>
@@ -5286,7 +6261,7 @@
         <v>5.1944499999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>36708</v>
       </c>
@@ -5297,7 +6272,7 @@
         <v>4.2446900000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>36739</v>
       </c>
@@ -5308,7 +6283,7 @@
         <v>3.53261</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>36770</v>
       </c>
@@ -5319,7 +6294,7 @@
         <v>4.3272500000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>36800</v>
       </c>
@@ -5330,7 +6305,7 @@
         <v>2.5463399999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>36831</v>
       </c>
@@ -5341,7 +6316,7 @@
         <v>2.0235099999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>36861</v>
       </c>
@@ -5352,7 +6327,7 @@
         <v>0.89466999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>36892</v>
       </c>
@@ -5363,7 +6338,7 @@
         <v>9.1410000000000005E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>36923</v>
       </c>
@@ -5374,7 +6349,7 @@
         <v>-0.88634999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>36951</v>
       </c>
@@ -5385,7 +6360,7 @@
         <v>-1.54877</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>36982</v>
       </c>
@@ -5396,7 +6371,7 @@
         <v>-2.4338500000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>37012</v>
       </c>
@@ -5407,7 +6382,7 @@
         <v>-3.28796</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>37043</v>
       </c>
@@ -5418,7 +6393,7 @@
         <v>-3.9896400000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>37073</v>
       </c>
@@ -5429,7 +6404,7 @@
         <v>-4.1914199999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>37104</v>
       </c>
@@ -5440,7 +6415,7 @@
         <v>-4.1821400000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>37135</v>
       </c>
@@ -5451,7 +6426,7 @@
         <v>-4.9568199999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>37165</v>
       </c>
@@ -5462,7 +6437,7 @@
         <v>-4.9951499999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>37196</v>
       </c>
@@ -5473,7 +6448,7 @@
         <v>-5.4960300000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>37226</v>
       </c>
@@ -5484,7 +6459,7 @@
         <v>-5.1703700000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>37257</v>
       </c>
@@ -5495,7 +6470,7 @@
         <v>-3.8948</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>37288</v>
       </c>
@@ -5506,7 +6481,7 @@
         <v>-3.3511199999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>37316</v>
       </c>
@@ -5517,7 +6492,7 @@
         <v>-2.3700800000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>37347</v>
       </c>
@@ -5528,7 +6503,7 @@
         <v>-1.68808</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>37377</v>
       </c>
@@ -5539,7 +6514,7 @@
         <v>-0.45751999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>37408</v>
       </c>
@@ -5550,7 +6525,7 @@
         <v>1.19173</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>37438</v>
       </c>
@@ -5561,7 +6536,7 @@
         <v>1.29867</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>37469</v>
       </c>
@@ -5572,7 +6547,7 @@
         <v>1.6992100000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>37500</v>
       </c>
@@ -5583,7 +6558,7 @@
         <v>2.085</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>37530</v>
       </c>
@@ -5594,7 +6569,7 @@
         <v>2.2478799999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>37561</v>
       </c>
@@ -5605,7 +6580,7 @@
         <v>3.3654500000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>37591</v>
       </c>
@@ -5616,7 +6591,7 @@
         <v>2.8736899999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>37622</v>
       </c>
@@ -5627,7 +6602,7 @@
         <v>2.95852</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>37653</v>
       </c>
@@ -5638,7 +6613,7 @@
         <v>3.3804500000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>37681</v>
       </c>
@@ -5649,7 +6624,7 @@
         <v>2.4160699999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>37712</v>
       </c>
@@ -5660,7 +6635,7 @@
         <v>1.15523</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>37742</v>
       </c>
@@ -5671,7 +6646,7 @@
         <v>0.62207000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>37773</v>
       </c>
@@ -5682,7 +6657,7 @@
         <v>-0.34338000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>37803</v>
       </c>
@@ -5693,7 +6668,7 @@
         <v>0.34465000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>37834</v>
       </c>
@@ -5704,7 +6679,7 @@
         <v>8.7319999999999995E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>37865</v>
       </c>
@@ -5715,7 +6690,7 @@
         <v>0.64351999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>37895</v>
       </c>
@@ -5726,7 +6701,7 @@
         <v>0.94127000000000005</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>37926</v>
       </c>
@@ -5737,7 +6712,7 @@
         <v>1.1510400000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>37956</v>
       </c>
@@ -5748,7 +6723,7 @@
         <v>1.5257099999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>37987</v>
       </c>
@@ -5759,7 +6734,7 @@
         <v>1.1147</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>38018</v>
       </c>
@@ -5770,7 +6745,7 @@
         <v>1.31216</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>38047</v>
       </c>
@@ -5781,7 +6756,7 @@
         <v>0.97006000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>38078</v>
       </c>
@@ -5792,7 +6767,7 @@
         <v>2.2173400000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>38108</v>
       </c>
@@ -5803,7 +6778,7 @@
         <v>2.9743499999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>38139</v>
       </c>
@@ -5814,7 +6789,7 @@
         <v>2.1507200000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>38169</v>
       </c>
@@ -5825,7 +6800,7 @@
         <v>2.58921</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>38200</v>
       </c>
@@ -5836,7 +6811,7 @@
         <v>2.8941599999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>38231</v>
       </c>
@@ -5847,7 +6822,7 @@
         <v>2.3136000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>38261</v>
       </c>
@@ -5858,7 +6833,7 @@
         <v>3.32816</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>38292</v>
       </c>
@@ -5869,7 +6844,7 @@
         <v>2.7569599999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>38322</v>
       </c>
@@ -5880,7 +6855,7 @@
         <v>3.5364200000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>38353</v>
       </c>
@@ -5891,7 +6866,7 @@
         <v>3.6599900000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>38384</v>
       </c>
@@ -5902,7 +6877,7 @@
         <v>3.72343</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>38412</v>
       </c>
@@ -5913,7 +6888,7 @@
         <v>4.2175099999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>38443</v>
       </c>
@@ -5924,7 +6899,7 @@
         <v>3.8858899999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>38473</v>
       </c>
@@ -5935,7 +6910,7 @@
         <v>3.32456</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>38504</v>
       </c>
@@ -5946,7 +6921,7 @@
         <v>4.5849399999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>38534</v>
       </c>
@@ -5957,7 +6932,7 @@
         <v>3.6296400000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>38565</v>
       </c>
@@ -5968,7 +6943,7 @@
         <v>3.5754600000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>38596</v>
       </c>
@@ -5979,7 +6954,7 @@
         <v>1.5113000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>38626</v>
       </c>
@@ -5990,7 +6965,7 @@
         <v>1.8010699999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>38657</v>
       </c>
@@ -6001,7 +6976,7 @@
         <v>2.5893799999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>38687</v>
       </c>
@@ -6012,7 +6987,7 @@
         <v>2.4816699999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>38718</v>
       </c>
@@ -6023,7 +6998,7 @@
         <v>2.16086</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>38749</v>
       </c>
@@ -6034,7 +7009,7 @@
         <v>1.60585</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>38777</v>
       </c>
@@ -6045,7 +7020,7 @@
         <v>1.9233100000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>38808</v>
       </c>
@@ -6056,7 +7031,7 @@
         <v>2.22804</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>38838</v>
       </c>
@@ -6067,7 +7042,7 @@
         <v>1.92838</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>38869</v>
       </c>
@@ -6078,7 +7053,7 @@
         <v>1.8941600000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>38899</v>
       </c>
@@ -6089,7 +7064,7 @@
         <v>2.0835699999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>38930</v>
       </c>
@@ -6100,7 +7075,7 @@
         <v>2.16669</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>38961</v>
       </c>
@@ -6111,7 +7086,7 @@
         <v>4.0649800000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>38991</v>
       </c>
@@ -6122,7 +7097,7 @@
         <v>2.6907899999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>39022</v>
       </c>
@@ -6133,7 +7108,7 @@
         <v>1.5805400000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>39052</v>
       </c>
@@ -6144,7 +7119,7 @@
         <v>2.03931</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>39083</v>
       </c>
@@ -6155,7 +7130,7 @@
         <v>1.454</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>39114</v>
       </c>
@@ -6166,7 +7141,7 @@
         <v>2.5033099999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>39142</v>
       </c>
@@ -6177,7 +7152,7 @@
         <v>2.3233799999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>39173</v>
       </c>
@@ -6188,7 +7163,7 @@
         <v>2.6693699999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>39203</v>
       </c>
@@ -6199,7 +7174,7 @@
         <v>2.8449300000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>39234</v>
       </c>
@@ -6210,7 +7185,7 @@
         <v>2.45547</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>39264</v>
       </c>
@@ -6221,7 +7196,7 @@
         <v>2.4341300000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>39295</v>
       </c>
@@ -6232,7 +7207,7 @@
         <v>2.3517299999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>39326</v>
       </c>
@@ -6243,7 +7218,7 @@
         <v>2.9414199999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>39356</v>
       </c>
@@ -6254,7 +7229,7 @@
         <v>2.53424</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>39387</v>
       </c>
@@ -6265,7 +7240,7 @@
         <v>3.2506900000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>39417</v>
       </c>
@@ -6276,7 +7251,7 @@
         <v>2.2189700000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>39448</v>
       </c>
@@ -6287,7 +7262,7 @@
         <v>2.3807900000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>39479</v>
       </c>
@@ -6298,7 +7273,7 @@
         <v>1.0527299999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>39508</v>
       </c>
@@ -6309,7 +7284,7 @@
         <v>0.68288000000000004</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>39539</v>
       </c>
@@ -6320,7 +7295,7 @@
         <v>-0.82347999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>39569</v>
       </c>
@@ -6331,7 +7306,7 @@
         <v>-1.3442099999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>39600</v>
       </c>
@@ -6342,7 +7317,7 @@
         <v>-1.5502</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>39630</v>
       </c>
@@ -6353,7 +7328,7 @@
         <v>-2.0224000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>39661</v>
       </c>
@@ -6364,7 +7339,7 @@
         <v>-3.7141799999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>39692</v>
       </c>
@@ -6375,7 +7350,7 @@
         <v>-8.17685</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>39722</v>
       </c>
@@ -6386,7 +7361,7 @@
         <v>-6.9618200000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>39753</v>
       </c>
@@ -6397,7 +7372,7 @@
         <v>-8.5719700000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>39783</v>
       </c>
@@ -6408,7 +7383,7 @@
         <v>-11.16534</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>39814</v>
       </c>
@@ -6419,7 +7394,7 @@
         <v>-12.88556</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>39845</v>
       </c>
@@ -6430,7 +7405,7 @@
         <v>-13.273770000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>39873</v>
       </c>
@@ -6441,7 +7416,7 @@
         <v>-14.355779999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>39904</v>
       </c>
@@ -6452,7 +7427,7 @@
         <v>-14.40541</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>39934</v>
       </c>
@@ -6463,7 +7438,7 @@
         <v>-14.88227</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>39965</v>
       </c>
@@ -6474,7 +7449,7 @@
         <v>-15.02244</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>39995</v>
       </c>
@@ -6485,7 +7460,7 @@
         <v>-13.89814</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>40026</v>
       </c>
@@ -6496,7 +7471,7 @@
         <v>-11.5741</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>40057</v>
       </c>
@@ -6507,7 +7482,7 @@
         <v>-7.0570199999999996</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>40087</v>
       </c>
@@ -6518,7 +7493,7 @@
         <v>-7.5305900000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>40118</v>
       </c>
@@ -6529,7 +7504,7 @@
         <v>-5.9946200000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>40148</v>
       </c>
@@ -6540,7 +7515,7 @@
         <v>-2.8130999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>40179</v>
       </c>
@@ -6551,7 +7526,7 @@
         <v>0.47504999999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>40210</v>
       </c>
@@ -6562,7 +7537,7 @@
         <v>1.51172</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>40238</v>
       </c>
@@ -6573,7 +7548,7 @@
         <v>3.8757299999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>40269</v>
       </c>
@@ -6584,7 +7559,7 @@
         <v>5.1030699999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>40299</v>
       </c>
@@ -6595,7 +7570,7 @@
         <v>7.8612599999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>40330</v>
       </c>
@@ -6606,7 +7581,7 @@
         <v>8.49742</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>40360</v>
       </c>
@@ -6617,7 +7592,7 @@
         <v>8.1962200000000003</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>40391</v>
       </c>
@@ -6628,7 +7603,7 @@
         <v>7.3533999999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>40422</v>
       </c>
@@ -6639,7 +7614,7 @@
         <v>6.8987499999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>40452</v>
       </c>
@@ -6650,7 +7625,7 @@
         <v>6.1994999999999996</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>40483</v>
       </c>
@@ -6661,7 +7636,7 @@
         <v>5.9743000000000004</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>40513</v>
       </c>
@@ -6672,7 +7647,7 @@
         <v>6.5242000000000004</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>40544</v>
       </c>
@@ -6683,7 +7658,7 @@
         <v>5.2803399999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>40575</v>
       </c>
@@ -6694,7 +7669,7 @@
         <v>4.3857400000000002</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>40603</v>
       </c>
@@ -6705,7 +7680,7 @@
         <v>4.6568199999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>40634</v>
       </c>
@@ -6716,7 +7691,7 @@
         <v>3.70695</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>40664</v>
       </c>
@@ -6727,7 +7702,7 @@
         <v>2.46726</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>40695</v>
       </c>
@@ -6738,7 +7713,7 @@
         <v>2.4242300000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>40725</v>
       </c>
@@ -6749,7 +7724,7 @@
         <v>2.4100199999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>40756</v>
       </c>
@@ -6760,7 +7735,7 @@
         <v>2.6973500000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>40787</v>
       </c>
@@ -6771,7 +7746,7 @@
         <v>2.5453000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>40817</v>
       </c>
@@ -6782,7 +7757,7 @@
         <v>3.4716100000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>40848</v>
       </c>
@@ -6793,7 +7768,7 @@
         <v>3.4245899999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>40878</v>
       </c>
@@ -6804,7 +7779,7 @@
         <v>3.0212699999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>40909</v>
       </c>
@@ -6815,7 +7790,7 @@
         <v>3.8733900000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>40940</v>
       </c>
@@ -6826,7 +7801,7 @@
         <v>4.87378</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>40969</v>
       </c>
@@ -6837,7 +7812,7 @@
         <v>3.2493599999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>41000</v>
       </c>
@@ -6848,7 +7823,7 @@
         <v>4.6239600000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>41030</v>
       </c>
@@ -6859,7 +7834,7 @@
         <v>4.5113399999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>41061</v>
       </c>
@@ -6870,7 +7845,7 @@
         <v>4.3563700000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>41091</v>
       </c>
@@ -6881,7 +7856,7 @@
         <v>4.2178699999999996</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>41122</v>
       </c>
@@ -6892,7 +7867,7 @@
         <v>2.8301799999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>41153</v>
       </c>
@@ -6903,7 +7878,7 @@
         <v>2.9009299999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>41183</v>
       </c>
@@ -6914,7 +7889,7 @@
         <v>2.1960500000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>41214</v>
       </c>
@@ -6925,7 +7900,7 @@
         <v>3.2227299999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>41244</v>
       </c>
@@ -6936,7 +7911,7 @@
         <v>2.7589999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>41275</v>
       </c>
@@ -6947,7 +7922,7 @@
         <v>2.1916699999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>41306</v>
       </c>
@@ -6965,14 +7940,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
     <col min="2" max="5" width="8.88671875" style="21"/>
@@ -6983,17 +7958,17 @@
     <col min="12" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="15.6">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -7001,10 +7976,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -7026,7 +8001,7 @@
       <c r="M5" s="23"/>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>32874</v>
       </c>
@@ -7048,7 +8023,7 @@
       <c r="M6" s="26"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>32905</v>
       </c>
@@ -7070,7 +8045,7 @@
       <c r="M7" s="26"/>
       <c r="N7" s="27"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>32933</v>
       </c>
@@ -7092,7 +8067,7 @@
       <c r="M8" s="26"/>
       <c r="N8" s="27"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>32964</v>
       </c>
@@ -7114,7 +8089,7 @@
       <c r="M9" s="26"/>
       <c r="N9" s="27"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>32994</v>
       </c>
@@ -7134,7 +8109,7 @@
       <c r="M10" s="26"/>
       <c r="N10" s="27"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>33025</v>
       </c>
@@ -7158,7 +8133,7 @@
       <c r="M11" s="26"/>
       <c r="N11" s="27"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>33055</v>
       </c>
@@ -7185,7 +8160,7 @@
       <c r="M12" s="26"/>
       <c r="N12" s="27"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>33086</v>
       </c>
@@ -7212,7 +8187,7 @@
       <c r="M13" s="26"/>
       <c r="N13" s="27"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>33117</v>
       </c>
@@ -7244,7 +8219,7 @@
       <c r="M14" s="26"/>
       <c r="N14" s="27"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>33147</v>
       </c>
@@ -7271,7 +8246,7 @@
       <c r="M15" s="26"/>
       <c r="N15" s="27"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>33178</v>
       </c>
@@ -7298,7 +8273,7 @@
       <c r="M16" s="26"/>
       <c r="N16" s="27"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>33208</v>
       </c>
@@ -7325,7 +8300,7 @@
       <c r="M17" s="26"/>
       <c r="N17" s="27"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>33239</v>
       </c>
@@ -7352,7 +8327,7 @@
       <c r="M18" s="26"/>
       <c r="N18" s="27"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>33270</v>
       </c>
@@ -7379,7 +8354,7 @@
       <c r="M19" s="26"/>
       <c r="N19" s="27"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>33298</v>
       </c>
@@ -7406,7 +8381,7 @@
       <c r="M20" s="26"/>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>33329</v>
       </c>
@@ -7433,7 +8408,7 @@
       <c r="M21" s="26"/>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>33359</v>
       </c>
@@ -7464,7 +8439,7 @@
       <c r="M22" s="26"/>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>33390</v>
       </c>
@@ -7495,7 +8470,7 @@
       <c r="M23" s="26"/>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>33420</v>
       </c>
@@ -7526,7 +8501,7 @@
       <c r="M24" s="26"/>
       <c r="N24" s="27"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>33451</v>
       </c>
@@ -7557,7 +8532,7 @@
       <c r="M25" s="26"/>
       <c r="N25" s="27"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>33482</v>
       </c>
@@ -7588,7 +8563,7 @@
       <c r="M26" s="26"/>
       <c r="N26" s="27"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>33512</v>
       </c>
@@ -7615,7 +8590,7 @@
       <c r="M27" s="26"/>
       <c r="N27" s="27"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>33543</v>
       </c>
@@ -7642,7 +8617,7 @@
       <c r="M28" s="26"/>
       <c r="N28" s="27"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>33573</v>
       </c>
@@ -7669,7 +8644,7 @@
       <c r="M29" s="26"/>
       <c r="N29" s="27"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>33604</v>
       </c>
@@ -7696,7 +8671,7 @@
       <c r="M30" s="26"/>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>33635</v>
       </c>
@@ -7723,7 +8698,7 @@
       <c r="M31" s="26"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>33664</v>
       </c>
@@ -7750,7 +8725,7 @@
       <c r="M32" s="26"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>33695</v>
       </c>
@@ -7777,7 +8752,7 @@
       <c r="M33" s="26"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33725</v>
       </c>
@@ -7809,7 +8784,7 @@
       <c r="M34" s="26"/>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33756</v>
       </c>
@@ -7836,7 +8811,7 @@
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>33786</v>
       </c>
@@ -7863,7 +8838,7 @@
       <c r="M36" s="26"/>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>33817</v>
       </c>
@@ -7883,7 +8858,7 @@
       <c r="M37" s="26"/>
       <c r="N37" s="27"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>33848</v>
       </c>
@@ -7903,7 +8878,7 @@
       <c r="M38" s="26"/>
       <c r="N38" s="27"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>33878</v>
       </c>
@@ -7923,7 +8898,7 @@
       <c r="M39" s="26"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>33909</v>
       </c>
@@ -7943,7 +8918,7 @@
       <c r="M40" s="26"/>
       <c r="N40" s="27"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>33939</v>
       </c>
@@ -7963,7 +8938,7 @@
       <c r="M41" s="26"/>
       <c r="N41" s="27"/>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1">
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>33970</v>
       </c>
@@ -7983,7 +8958,7 @@
       <c r="M42" s="31"/>
       <c r="N42" s="32"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>34001</v>
       </c>
@@ -7994,7 +8969,7 @@
         <v>4.6099399999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>34029</v>
       </c>
@@ -8005,7 +8980,7 @@
         <v>3.7456499999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>34060</v>
       </c>
@@ -8017,7 +8992,7 @@
       </c>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>34090</v>
       </c>
@@ -8029,7 +9004,7 @@
       </c>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>34121</v>
       </c>
@@ -8040,7 +9015,7 @@
         <v>2.8126099999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>34151</v>
       </c>
@@ -8051,7 +9026,7 @@
         <v>2.2442199999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>34182</v>
       </c>
@@ -8062,7 +9037,7 @@
         <v>2.7173699999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>34213</v>
       </c>
@@ -8073,7 +9048,7 @@
         <v>2.9809800000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>34243</v>
       </c>
@@ -8084,7 +9059,7 @@
         <v>2.9333800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>34274</v>
       </c>
@@ -8095,7 +9070,7 @@
         <v>2.9200900000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>34304</v>
       </c>
@@ -8106,7 +9081,7 @@
         <v>3.41431</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>34335</v>
       </c>
@@ -8117,7 +9092,7 @@
         <v>3.31942</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>34366</v>
       </c>
@@ -8128,7 +9103,7 @@
         <v>2.9935499999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>34394</v>
       </c>
@@ -8139,7 +9114,7 @@
         <v>4.0913700000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>34425</v>
       </c>
@@ -8150,7 +9125,7 @@
         <v>4.33026</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>34455</v>
       </c>
@@ -8161,7 +9136,7 @@
         <v>5.2727700000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>34486</v>
       </c>
@@ -8172,7 +9147,7 @@
         <v>5.7526999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>34516</v>
       </c>
@@ -8183,7 +9158,7 @@
         <v>5.59537</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>34547</v>
       </c>
@@ -8194,7 +9169,7 @@
         <v>6.2384899999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>34578</v>
       </c>
@@ -8205,7 +9180,7 @@
         <v>6.0747999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>34608</v>
       </c>
@@ -8216,7 +9191,7 @@
         <v>6.2188800000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>34639</v>
       </c>
@@ -8227,7 +9202,7 @@
         <v>6.46706</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>34669</v>
       </c>
@@ -8238,7 +9213,7 @@
         <v>7.0388799999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>34700</v>
       </c>
@@ -8249,7 +9224,7 @@
         <v>6.8182099999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>34731</v>
       </c>
@@ -8260,7 +9235,7 @@
         <v>6.6956100000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>34759</v>
       </c>
@@ -8271,7 +9246,7 @@
         <v>5.7787600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>34790</v>
       </c>
@@ -8282,7 +9257,7 @@
         <v>5.1745900000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>34820</v>
       </c>
@@ -8293,7 +9268,7 @@
         <v>4.8758699999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>34851</v>
       </c>
@@ -8304,7 +9279,7 @@
         <v>4.5637400000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>34881</v>
       </c>
@@ -8315,7 +9290,7 @@
         <v>3.9969899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>34912</v>
       </c>
@@ -8326,7 +9301,7 @@
         <v>4.7711199999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>34943</v>
       </c>
@@ -8337,7 +9312,7 @@
         <v>4.8249700000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>34973</v>
       </c>
@@ -8348,7 +9323,7 @@
         <v>3.7331500000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>35004</v>
       </c>
@@ -8359,7 +9334,7 @@
         <v>3.3409800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>35034</v>
       </c>
@@ -8370,7 +9345,7 @@
         <v>2.6692200000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>35065</v>
       </c>
@@ -8381,7 +9356,7 @@
         <v>1.79393</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>35096</v>
       </c>
@@ -8392,7 +9367,7 @@
         <v>3.4835799999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>35125</v>
       </c>
@@ -8403,7 +9378,7 @@
         <v>3.15801</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>35156</v>
       </c>
@@ -8414,7 +9389,7 @@
         <v>4.0665399999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>35186</v>
       </c>
@@ -8425,7 +9400,7 @@
         <v>4.5160999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>35217</v>
       </c>
@@ -8436,7 +9411,7 @@
         <v>5.0620599999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>35247</v>
       </c>
@@ -8447,7 +9422,7 @@
         <v>5.3286199999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>35278</v>
       </c>
@@ -8458,7 +9433,7 @@
         <v>4.6359399999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>35309</v>
       </c>
@@ -8469,7 +9444,7 @@
         <v>4.8045400000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>35339</v>
       </c>
@@ -8480,7 +9455,7 @@
         <v>4.9954799999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>35370</v>
       </c>
@@ -8491,7 +9466,7 @@
         <v>5.585</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>35400</v>
       </c>
@@ -8502,7 +9477,7 @@
         <v>5.8527300000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>35431</v>
       </c>
@@ -8513,7 +9488,7 @@
         <v>6.6759899999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>35462</v>
       </c>
@@ -8524,7 +9499,7 @@
         <v>6.2738100000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>35490</v>
       </c>
@@ -8535,7 +9510,7 @@
         <v>7.2570100000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>35521</v>
       </c>
@@ -8546,7 +9521,7 @@
         <v>6.4139099999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>35551</v>
       </c>
@@ -8557,7 +9532,7 @@
         <v>6.4069799999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>35582</v>
       </c>
@@ -8568,7 +9543,7 @@
         <v>5.9460600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>35612</v>
       </c>
@@ -8579,7 +9554,7 @@
         <v>6.7335000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>35643</v>
       </c>
@@ -8590,7 +9565,7 @@
         <v>7.4483199999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>35674</v>
       </c>
@@ -8601,7 +9576,7 @@
         <v>7.8115600000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>35704</v>
       </c>
@@ -8612,7 +9587,7 @@
         <v>8.5443899999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>35735</v>
       </c>
@@ -8623,7 +9598,7 @@
         <v>8.6165099999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>35765</v>
       </c>
@@ -8634,7 +9609,7 @@
         <v>8.3074999999999992</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>35796</v>
       </c>
@@ -8645,7 +9620,7 @@
         <v>8.7200399999999991</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>35827</v>
       </c>
@@ -8656,7 +9631,7 @@
         <v>7.5133999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>35855</v>
       </c>
@@ -8667,7 +9642,7 @@
         <v>6.7634600000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>35886</v>
       </c>
@@ -8678,7 +9653,7 @@
         <v>7.1221500000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>35916</v>
       </c>
@@ -8689,7 +9664,7 @@
         <v>7.1010799999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>35947</v>
       </c>
@@ -8700,7 +9675,7 @@
         <v>5.9965900000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>35977</v>
       </c>
@@ -8711,7 +9686,7 @@
         <v>4.9060800000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>36008</v>
       </c>
@@ -8722,7 +9697,7 @@
         <v>5.7304599999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>36039</v>
       </c>
@@ -8733,7 +9708,7 @@
         <v>4.4806499999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>36069</v>
       </c>
@@ -8744,7 +9719,7 @@
         <v>4.5948500000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>36100</v>
       </c>
@@ -8755,7 +9730,7 @@
         <v>3.58264</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>36130</v>
       </c>
@@ -8766,7 +9741,7 @@
         <v>3.5820599999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>36161</v>
       </c>
@@ -8777,7 +9752,7 @@
         <v>3.5336799999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>36192</v>
       </c>
@@ -8788,7 +9763,7 @@
         <v>3.89032</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>36220</v>
       </c>
@@ -8799,7 +9774,7 @@
         <v>4.0449400000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>36251</v>
       </c>
@@ -8810,7 +9785,7 @@
         <v>3.8896199999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>36281</v>
       </c>
@@ -8821,7 +9796,7 @@
         <v>3.9643799999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>36312</v>
       </c>
@@ -8832,7 +9807,7 @@
         <v>4.3744300000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>36342</v>
       </c>
@@ -8843,7 +9818,7 @@
         <v>5.53057</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>36373</v>
       </c>
@@ -8854,7 +9829,7 @@
         <v>3.77183</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>36404</v>
       </c>
@@ -8865,7 +9840,7 @@
         <v>3.81589</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>36434</v>
       </c>
@@ -8876,7 +9851,7 @@
         <v>4.3154500000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>36465</v>
       </c>
@@ -8887,7 +9862,7 @@
         <v>4.92903</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>36495</v>
       </c>
@@ -8898,7 +9873,7 @@
         <v>5.3910299999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>36526</v>
       </c>
@@ -8909,7 +9884,7 @@
         <v>5.0027299999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>36557</v>
       </c>
@@ -8920,7 +9895,7 @@
         <v>4.9447999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>36586</v>
       </c>
@@ -8931,7 +9906,7 @@
         <v>5.1386799999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>36617</v>
       </c>
@@ -8942,7 +9917,7 @@
         <v>5.5534100000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>36647</v>
       </c>
@@ -8953,7 +9928,7 @@
         <v>4.9326499999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>36678</v>
       </c>
@@ -8964,7 +9939,7 @@
         <v>5.1944499999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>36708</v>
       </c>
@@ -8975,7 +9950,7 @@
         <v>4.2446900000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>36739</v>
       </c>
@@ -8986,7 +9961,7 @@
         <v>3.53261</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>36770</v>
       </c>
@@ -8997,7 +9972,7 @@
         <v>4.3272500000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>36800</v>
       </c>
@@ -9008,7 +9983,7 @@
         <v>2.5463399999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>36831</v>
       </c>
@@ -9019,7 +9994,7 @@
         <v>2.0235099999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>36861</v>
       </c>
@@ -9030,7 +10005,7 @@
         <v>0.89466999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>36892</v>
       </c>
@@ -9041,7 +10016,7 @@
         <v>9.1410000000000005E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>36923</v>
       </c>
@@ -9052,7 +10027,7 @@
         <v>-0.88634999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>36951</v>
       </c>
@@ -9063,7 +10038,7 @@
         <v>-1.54877</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>36982</v>
       </c>
@@ -9074,7 +10049,7 @@
         <v>-2.4338500000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>37012</v>
       </c>
@@ -9085,7 +10060,7 @@
         <v>-3.28796</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>37043</v>
       </c>
@@ -9096,7 +10071,7 @@
         <v>-3.9896400000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>37073</v>
       </c>
@@ -9107,7 +10082,7 @@
         <v>-4.1914199999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>37104</v>
       </c>
@@ -9118,7 +10093,7 @@
         <v>-4.1821400000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>37135</v>
       </c>
@@ -9129,7 +10104,7 @@
         <v>-4.9568199999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>37165</v>
       </c>
@@ -9140,7 +10115,7 @@
         <v>-4.9951499999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>37196</v>
       </c>
@@ -9151,7 +10126,7 @@
         <v>-5.4960300000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>37226</v>
       </c>
@@ -9162,7 +10137,7 @@
         <v>-5.1703700000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>37257</v>
       </c>
@@ -9173,7 +10148,7 @@
         <v>-3.8948</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>37288</v>
       </c>
@@ -9184,7 +10159,7 @@
         <v>-3.3511199999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>37316</v>
       </c>
@@ -9195,7 +10170,7 @@
         <v>-2.3700800000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>37347</v>
       </c>
@@ -9206,7 +10181,7 @@
         <v>-1.68808</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>37377</v>
       </c>
@@ -9217,7 +10192,7 @@
         <v>-0.45751999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>37408</v>
       </c>
@@ -9228,7 +10203,7 @@
         <v>1.19173</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>37438</v>
       </c>
@@ -9239,7 +10214,7 @@
         <v>1.29867</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>37469</v>
       </c>
@@ -9250,7 +10225,7 @@
         <v>1.6992100000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>37500</v>
       </c>
@@ -9261,7 +10236,7 @@
         <v>2.085</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>37530</v>
       </c>
@@ -9272,7 +10247,7 @@
         <v>2.2478799999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>37561</v>
       </c>
@@ -9283,7 +10258,7 @@
         <v>3.3654500000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>37591</v>
       </c>
@@ -9294,7 +10269,7 @@
         <v>2.8736899999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>37622</v>
       </c>
@@ -9305,7 +10280,7 @@
         <v>2.95852</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>37653</v>
       </c>
@@ -9316,7 +10291,7 @@
         <v>3.3804500000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>37681</v>
       </c>
@@ -9327,7 +10302,7 @@
         <v>2.4160699999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>37712</v>
       </c>
@@ -9338,7 +10313,7 @@
         <v>1.15523</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>37742</v>
       </c>
@@ -9349,7 +10324,7 @@
         <v>0.62207000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>37773</v>
       </c>
@@ -9360,7 +10335,7 @@
         <v>-0.34338000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>37803</v>
       </c>
@@ -9371,7 +10346,7 @@
         <v>0.34465000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>37834</v>
       </c>
@@ -9382,7 +10357,7 @@
         <v>8.7319999999999995E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>37865</v>
       </c>
@@ -9393,7 +10368,7 @@
         <v>0.64351999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>37895</v>
       </c>
@@ -9404,7 +10379,7 @@
         <v>0.94127000000000005</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>37926</v>
       </c>
@@ -9415,7 +10390,7 @@
         <v>1.1510400000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>37956</v>
       </c>
@@ -9426,7 +10401,7 @@
         <v>1.5257099999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>37987</v>
       </c>
@@ -9437,7 +10412,7 @@
         <v>1.1147</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>38018</v>
       </c>
@@ -9448,7 +10423,7 @@
         <v>1.31216</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>38047</v>
       </c>
@@ -9459,7 +10434,7 @@
         <v>0.97006000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>38078</v>
       </c>
@@ -9470,7 +10445,7 @@
         <v>2.2173400000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>38108</v>
       </c>
@@ -9481,7 +10456,7 @@
         <v>2.9743499999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>38139</v>
       </c>
@@ -9492,7 +10467,7 @@
         <v>2.1507200000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>38169</v>
       </c>
@@ -9503,7 +10478,7 @@
         <v>2.58921</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>38200</v>
       </c>
@@ -9514,7 +10489,7 @@
         <v>2.8941599999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>38231</v>
       </c>
@@ -9525,7 +10500,7 @@
         <v>2.3136000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>38261</v>
       </c>
@@ -9536,7 +10511,7 @@
         <v>3.32816</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>38292</v>
       </c>
@@ -9547,7 +10522,7 @@
         <v>2.7569599999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>38322</v>
       </c>
@@ -9558,7 +10533,7 @@
         <v>3.5364200000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>38353</v>
       </c>
@@ -9569,7 +10544,7 @@
         <v>3.6599900000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>38384</v>
       </c>
@@ -9580,7 +10555,7 @@
         <v>3.72343</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>38412</v>
       </c>
@@ -9591,7 +10566,7 @@
         <v>4.2175099999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>38443</v>
       </c>
@@ -9602,7 +10577,7 @@
         <v>3.8858899999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>38473</v>
       </c>
@@ -9613,7 +10588,7 @@
         <v>3.32456</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>38504</v>
       </c>
@@ -9624,7 +10599,7 @@
         <v>4.5849399999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>38534</v>
       </c>
@@ -9635,7 +10610,7 @@
         <v>3.6296400000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>38565</v>
       </c>
@@ -9646,7 +10621,7 @@
         <v>3.5754600000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>38596</v>
       </c>
@@ -9657,7 +10632,7 @@
         <v>1.5113000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>38626</v>
       </c>
@@ -9668,7 +10643,7 @@
         <v>1.8010699999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>38657</v>
       </c>
@@ -9679,7 +10654,7 @@
         <v>2.5893799999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>38687</v>
       </c>
@@ -9690,7 +10665,7 @@
         <v>2.4816699999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>38718</v>
       </c>
@@ -9701,7 +10676,7 @@
         <v>2.16086</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>38749</v>
       </c>
@@ -9712,7 +10687,7 @@
         <v>1.60585</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>38777</v>
       </c>
@@ -9723,7 +10698,7 @@
         <v>1.9233100000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>38808</v>
       </c>
@@ -9734,7 +10709,7 @@
         <v>2.22804</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>38838</v>
       </c>
@@ -9745,7 +10720,7 @@
         <v>1.92838</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>38869</v>
       </c>
@@ -9756,7 +10731,7 @@
         <v>1.8941600000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>38899</v>
       </c>
@@ -9767,7 +10742,7 @@
         <v>2.0835699999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>38930</v>
       </c>
@@ -9778,7 +10753,7 @@
         <v>2.16669</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>38961</v>
       </c>
@@ -9789,7 +10764,7 @@
         <v>4.0649800000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>38991</v>
       </c>
@@ -9800,7 +10775,7 @@
         <v>2.6907899999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>39022</v>
       </c>
@@ -9811,7 +10786,7 @@
         <v>1.5805400000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>39052</v>
       </c>
@@ -9822,7 +10797,7 @@
         <v>2.03931</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>39083</v>
       </c>
@@ -9833,7 +10808,7 @@
         <v>1.454</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>39114</v>
       </c>
@@ -9844,7 +10819,7 @@
         <v>2.5033099999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>39142</v>
       </c>
@@ -9855,7 +10830,7 @@
         <v>2.3233799999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>39173</v>
       </c>
@@ -9866,7 +10841,7 @@
         <v>2.6693699999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>39203</v>
       </c>
@@ -9877,7 +10852,7 @@
         <v>2.8449300000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>39234</v>
       </c>
@@ -9888,7 +10863,7 @@
         <v>2.45547</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>39264</v>
       </c>
@@ -9899,7 +10874,7 @@
         <v>2.4341300000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>39295</v>
       </c>
@@ -9910,7 +10885,7 @@
         <v>2.3517299999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>39326</v>
       </c>
@@ -9921,7 +10896,7 @@
         <v>2.9414199999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>39356</v>
       </c>
@@ -9932,7 +10907,7 @@
         <v>2.53424</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>39387</v>
       </c>
@@ -9943,7 +10918,7 @@
         <v>3.2506900000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>39417</v>
       </c>
@@ -9954,7 +10929,7 @@
         <v>2.2189700000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>39448</v>
       </c>
@@ -9965,7 +10940,7 @@
         <v>2.3807900000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>39479</v>
       </c>
@@ -9976,7 +10951,7 @@
         <v>1.0527299999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>39508</v>
       </c>
@@ -9987,7 +10962,7 @@
         <v>0.68288000000000004</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>39539</v>
       </c>
@@ -9998,7 +10973,7 @@
         <v>-0.82347999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>39569</v>
       </c>
@@ -10009,7 +10984,7 @@
         <v>-1.3442099999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>39600</v>
       </c>
@@ -10020,7 +10995,7 @@
         <v>-1.5502</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>39630</v>
       </c>
@@ -10031,7 +11006,7 @@
         <v>-2.0224000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>39661</v>
       </c>
@@ -10042,7 +11017,7 @@
         <v>-3.7141799999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>39692</v>
       </c>
@@ -10053,7 +11028,7 @@
         <v>-8.17685</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>39722</v>
       </c>
@@ -10064,7 +11039,7 @@
         <v>-6.9618200000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>39753</v>
       </c>
@@ -10075,7 +11050,7 @@
         <v>-8.5719700000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>39783</v>
       </c>
@@ -10086,7 +11061,7 @@
         <v>-11.16534</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>39814</v>
       </c>
@@ -10097,7 +11072,7 @@
         <v>-12.88556</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>39845</v>
       </c>
@@ -10108,7 +11083,7 @@
         <v>-13.273770000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>39873</v>
       </c>
@@ -10119,7 +11094,7 @@
         <v>-14.355779999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>39904</v>
       </c>
@@ -10130,7 +11105,7 @@
         <v>-14.40541</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>39934</v>
       </c>
@@ -10141,7 +11116,7 @@
         <v>-14.88227</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>39965</v>
       </c>
@@ -10152,7 +11127,7 @@
         <v>-15.02244</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>39995</v>
       </c>
@@ -10163,7 +11138,7 @@
         <v>-13.89814</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>40026</v>
       </c>
@@ -10174,7 +11149,7 @@
         <v>-11.5741</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>40057</v>
       </c>
@@ -10185,7 +11160,7 @@
         <v>-7.0570199999999996</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>40087</v>
       </c>
@@ -10196,7 +11171,7 @@
         <v>-7.5305900000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>40118</v>
       </c>
@@ -10207,7 +11182,7 @@
         <v>-5.9946200000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>40148</v>
       </c>
@@ -10218,7 +11193,7 @@
         <v>-2.8130999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>40179</v>
       </c>
@@ -10229,7 +11204,7 @@
         <v>0.47504999999999997</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>40210</v>
       </c>
@@ -10240,7 +11215,7 @@
         <v>1.51172</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>40238</v>
       </c>
@@ -10251,7 +11226,7 @@
         <v>3.8757299999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>40269</v>
       </c>
@@ -10262,7 +11237,7 @@
         <v>5.1030699999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>40299</v>
       </c>
@@ -10273,7 +11248,7 @@
         <v>7.8612599999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>40330</v>
       </c>
@@ -10284,7 +11259,7 @@
         <v>8.49742</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>40360</v>
       </c>
@@ -10295,7 +11270,7 @@
         <v>8.1962200000000003</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>40391</v>
       </c>
@@ -10306,7 +11281,7 @@
         <v>7.3533999999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>40422</v>
       </c>
@@ -10317,7 +11292,7 @@
         <v>6.8987499999999997</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>40452</v>
       </c>
@@ -10328,7 +11303,7 @@
         <v>6.1994999999999996</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>40483</v>
       </c>
@@ -10339,7 +11314,7 @@
         <v>5.9743000000000004</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>40513</v>
       </c>
@@ -10350,7 +11325,7 @@
         <v>6.5242000000000004</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>40544</v>
       </c>
@@ -10361,7 +11336,7 @@
         <v>5.2803399999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>40575</v>
       </c>
@@ -10372,7 +11347,7 @@
         <v>4.3857400000000002</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>40603</v>
       </c>
@@ -10383,7 +11358,7 @@
         <v>4.6568199999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>40634</v>
       </c>
@@ -10394,7 +11369,7 @@
         <v>3.70695</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>40664</v>
       </c>
@@ -10405,7 +11380,7 @@
         <v>2.46726</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>40695</v>
       </c>
@@ -10416,7 +11391,7 @@
         <v>2.4242300000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>40725</v>
       </c>
@@ -10427,7 +11402,7 @@
         <v>2.4100199999999998</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>40756</v>
       </c>
@@ -10438,7 +11413,7 @@
         <v>2.6973500000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>40787</v>
       </c>
@@ -10449,7 +11424,7 @@
         <v>2.5453000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>40817</v>
       </c>
@@ -10460,7 +11435,7 @@
         <v>3.4716100000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>40848</v>
       </c>
@@ -10471,7 +11446,7 @@
         <v>3.4245899999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>40878</v>
       </c>
@@ -10482,7 +11457,7 @@
         <v>3.0212699999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>40909</v>
       </c>
@@ -10493,7 +11468,7 @@
         <v>3.8733900000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>40940</v>
       </c>
@@ -10504,7 +11479,7 @@
         <v>4.87378</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>40969</v>
       </c>
@@ -10515,7 +11490,7 @@
         <v>3.2493599999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>41000</v>
       </c>
@@ -10526,7 +11501,7 @@
         <v>4.6239600000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>41030</v>
       </c>
@@ -10537,7 +11512,7 @@
         <v>4.5113399999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>41061</v>
       </c>
@@ -10548,7 +11523,7 @@
         <v>4.3563700000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>41091</v>
       </c>
@@ -10559,7 +11534,7 @@
         <v>4.2178699999999996</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>41122</v>
       </c>
@@ -10570,7 +11545,7 @@
         <v>2.8301799999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>41153</v>
       </c>
@@ -10581,7 +11556,7 @@
         <v>2.9009299999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>41183</v>
       </c>
@@ -10592,7 +11567,7 @@
         <v>2.1960500000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>41214</v>
       </c>
@@ -10603,7 +11578,7 @@
         <v>3.2227299999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>41244</v>
       </c>
@@ -10614,7 +11589,7 @@
         <v>2.7589999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>41275</v>
       </c>
@@ -10625,7 +11600,7 @@
         <v>2.1916699999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>41306</v>
       </c>
@@ -10642,18 +11617,19 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="37" customWidth="1"/>
     <col min="2" max="6" width="11.44140625" style="38" customWidth="1"/>
@@ -10664,67 +11640,67 @@
     <col min="15" max="256" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
     </row>
-    <row r="3" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -10734,7 +11710,7 @@
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>26</v>
       </c>
@@ -10745,7 +11721,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>27</v>
       </c>
@@ -10756,7 +11732,7 @@
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="41"/>
       <c r="I11" s="38"/>
       <c r="J11" s="42"/>
@@ -10764,7 +11740,7 @@
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13" ht="15.6">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="43"/>
       <c r="B12" s="44" t="s">
         <v>28</v>
@@ -10790,7 +11766,7 @@
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>34</v>
       </c>
@@ -10833,7 +11809,7 @@
         <v>INDPRO</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="48">
         <v>32874</v>
       </c>
@@ -10874,7 +11850,7 @@
         <v>-9.8156155970035644E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="48">
         <v>32905</v>
       </c>
@@ -10916,7 +11892,7 @@
         <v>-2.0025460493334379E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="48">
         <v>32933</v>
       </c>
@@ -10958,7 +11934,7 @@
         <v>-3.3321170169395412E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="48">
         <v>32964</v>
       </c>
@@ -11000,7 +11976,7 @@
         <v>-4.3805058581794898E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="48">
         <v>32994</v>
       </c>
@@ -11042,7 +12018,7 @@
         <v>-4.935449528425543E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="48">
         <v>33025</v>
       </c>
@@ -11084,7 +12060,7 @@
         <v>-4.94212147821727E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="48">
         <v>33055</v>
       </c>
@@ -11126,7 +12102,7 @@
         <v>-4.3636226156071344E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="48">
         <v>33086</v>
       </c>
@@ -11168,7 +12144,7 @@
         <v>-3.4347129748299079E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="48">
         <v>33117</v>
       </c>
@@ -11210,7 +12186,7 @@
         <v>-1.4742229082012365E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="48">
         <v>33147</v>
       </c>
@@ -11252,7 +12228,7 @@
         <v>1.6925236446457399E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="48">
         <v>33178</v>
       </c>
@@ -11294,7 +12270,7 @@
         <v>5.6918549807507927E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="48">
         <v>33208</v>
       </c>
@@ -11336,7 +12312,7 @@
         <v>0.10429570054476113</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="48">
         <v>33239</v>
       </c>
@@ -11378,7 +12354,7 @@
         <v>0.15972711416356389</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="48">
         <v>33270</v>
       </c>
@@ -11420,7 +12396,7 @@
         <v>0.23742799264586728</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="48">
         <v>33298</v>
       </c>
@@ -11462,7 +12438,7 @@
         <v>0.32115042941536298</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="48">
         <v>33329</v>
       </c>
@@ -11504,7 +12480,7 @@
         <v>0.40789780899080974</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="48">
         <v>33359</v>
       </c>
@@ -11546,7 +12522,7 @@
         <v>0.49491472521308627</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="48">
         <v>33390</v>
       </c>
@@ -11588,7 +12564,7 @@
         <v>0.58272036187476883</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="48">
         <v>33420</v>
       </c>
@@ -11630,7 +12606,7 @@
         <v>0.66994579463721127</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="48">
         <v>33451</v>
       </c>
@@ -11672,7 +12648,7 @@
         <v>0.75401063149412628</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="48">
         <v>33482</v>
       </c>
@@ -11714,7 +12690,7 @@
         <v>0.82837790007255607</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="48">
         <v>33512</v>
       </c>
@@ -11756,7 +12732,7 @@
         <v>0.89089404368469427</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="48">
         <v>33543</v>
       </c>
@@ -11798,7 +12774,7 @@
         <v>0.93955643646497033</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="48">
         <v>33573</v>
       </c>
@@ -11840,7 +12816,7 @@
         <v>0.97534104561199264</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="48">
         <v>33604</v>
       </c>
@@ -11883,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="48">
         <v>33635</v>
       </c>
@@ -11926,7 +12902,7 @@
         <v>0.97534104561199264</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="48">
         <v>33664</v>
       </c>
@@ -11969,7 +12945,7 @@
         <v>0.93955643646497033</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="48">
         <v>33695</v>
       </c>
@@ -12012,7 +12988,7 @@
         <v>0.89089404368469427</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="48">
         <v>33725</v>
       </c>
@@ -12055,7 +13031,7 @@
         <v>0.82837790007255607</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="48">
         <v>33756</v>
       </c>
@@ -12098,7 +13074,7 @@
         <v>0.75401063149412628</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="48">
         <v>33786</v>
       </c>
@@ -12141,7 +13117,7 @@
         <v>0.66994579463721127</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="48">
         <v>33817</v>
       </c>
@@ -12184,7 +13160,7 @@
         <v>0.58272036187476883</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="48">
         <v>33848</v>
       </c>
@@ -12227,7 +13203,7 @@
         <v>0.49491472521308627</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="48">
         <v>33878</v>
       </c>
@@ -12270,7 +13246,7 @@
         <v>0.40789780899080974</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="48">
         <v>33909</v>
       </c>
@@ -12313,7 +13289,7 @@
         <v>0.32115042941536298</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="48">
         <v>33939</v>
       </c>
@@ -12356,7 +13332,7 @@
         <v>0.23742799264586728</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="48">
         <v>33970</v>
       </c>
@@ -12401,7 +13377,7 @@
         <v>0.15972711416356389</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="48">
         <v>34001</v>
       </c>
@@ -12446,7 +13422,7 @@
         <v>0.10429570054476113</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="48">
         <v>34029</v>
       </c>
@@ -12491,7 +13467,7 @@
         <v>5.6918549807507927E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="48">
         <v>34060</v>
       </c>
@@ -12536,7 +13512,7 @@
         <v>1.6925236446457399E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="48">
         <v>34090</v>
       </c>
@@ -12581,7 +13557,7 @@
         <v>-1.4742229082012365E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="48">
         <v>34121</v>
       </c>
@@ -12626,7 +13602,7 @@
         <v>-3.4347129748299079E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="48">
         <v>34151</v>
       </c>
@@ -12671,7 +13647,7 @@
         <v>-4.3636226156071344E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="48">
         <v>34182</v>
       </c>
@@ -12716,7 +13692,7 @@
         <v>-4.94212147821727E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="48">
         <v>34213</v>
       </c>
@@ -12761,7 +13737,7 @@
         <v>-4.935449528425543E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="48">
         <v>34243</v>
       </c>
@@ -12806,7 +13782,7 @@
         <v>-4.3805058581794898E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="48">
         <v>34274</v>
       </c>
@@ -12851,7 +13827,7 @@
         <v>-3.3321170169395412E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="48">
         <v>34304</v>
       </c>
@@ -12896,7 +13872,7 @@
         <v>-2.0025460493334379E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="48">
         <v>34335</v>
       </c>
@@ -12941,7 +13917,7 @@
         <v>-9.8156155970035644E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="48">
         <v>34366</v>
       </c>
@@ -12967,7 +13943,7 @@
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="48">
         <v>34394</v>
       </c>
@@ -13011,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="48">
         <v>34425</v>
       </c>
@@ -13055,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="48">
         <v>34455</v>
       </c>
@@ -13076,28 +14052,28 @@
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="61"/>
-      <c r="I66" s="66" t="str">
+      <c r="I66" s="68" t="str">
         <f ca="1">I13&amp;" ("&amp;IF(I65&gt;0,"Lagging",IF(I65=0,"Neither","Leading"))&amp;")"</f>
         <v>NAPM (Lagging)</v>
       </c>
-      <c r="J66" s="66" t="str">
+      <c r="J66" s="68" t="str">
         <f ca="1">J13&amp;" ("&amp;IF(J65&gt;0,"Lagging",IF(J65=0,"Neither","Leading"))&amp;")"</f>
         <v>RRSFS (Leading)</v>
       </c>
-      <c r="K66" s="66" t="str">
+      <c r="K66" s="68" t="str">
         <f ca="1">K13&amp;" ("&amp;IF(K65&gt;0,"Lagging",IF(K65=0,"Neither","Leading"))&amp;")"</f>
         <v>HOUST (Leading)</v>
       </c>
-      <c r="L66" s="66" t="str">
+      <c r="L66" s="68" t="str">
         <f ca="1">L13&amp;" ("&amp;IF(L65&gt;0,"Lagging",IF(L65=0,"Neither","Leading"))&amp;")"</f>
         <v>PAYEMS (Lagging)</v>
       </c>
-      <c r="M66" s="68" t="str">
+      <c r="M66" s="65" t="str">
         <f ca="1">M13&amp;" ("&amp;IF(M65&gt;0,"Lagging",IF(M65=0,"Neither","Leading"))&amp;")"</f>
         <v>INDPRO (Neither)</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="48">
         <v>34486</v>
       </c>
@@ -13118,13 +14094,13 @@
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="62"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="69"/>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="I67" s="69"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="66"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="48">
         <v>34516</v>
       </c>
@@ -13145,7 +14121,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="48">
         <v>34547</v>
       </c>
@@ -13166,7 +14142,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="48">
         <v>34578</v>
       </c>
@@ -13187,7 +14163,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="48">
         <v>34608</v>
       </c>
@@ -13208,7 +14184,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="48">
         <v>34639</v>
       </c>
@@ -13229,7 +14205,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="48">
         <v>34669</v>
       </c>
@@ -13250,7 +14226,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="48">
         <v>34700</v>
       </c>
@@ -13271,7 +14247,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="48">
         <v>34731</v>
       </c>
@@ -13292,7 +14268,7 @@
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="48">
         <v>34759</v>
       </c>
@@ -13313,7 +14289,7 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="48">
         <v>34790</v>
       </c>
@@ -13334,7 +14310,7 @@
       </c>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:13" s="38" customFormat="1">
+    <row r="78" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="48">
         <v>34820</v>
       </c>
@@ -13360,7 +14336,7 @@
       <c r="L78"/>
       <c r="M78"/>
     </row>
-    <row r="79" spans="1:13" s="38" customFormat="1">
+    <row r="79" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="48">
         <v>34851</v>
       </c>
@@ -13386,7 +14362,7 @@
       <c r="L79"/>
       <c r="M79"/>
     </row>
-    <row r="80" spans="1:13" s="38" customFormat="1">
+    <row r="80" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="48">
         <v>34881</v>
       </c>
@@ -13412,7 +14388,7 @@
       <c r="L80"/>
       <c r="M80"/>
     </row>
-    <row r="81" spans="1:13" s="38" customFormat="1">
+    <row r="81" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="48">
         <v>34912</v>
       </c>
@@ -13438,7 +14414,7 @@
       <c r="L81"/>
       <c r="M81"/>
     </row>
-    <row r="82" spans="1:13" s="38" customFormat="1">
+    <row r="82" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="48">
         <v>34943</v>
       </c>
@@ -13464,7 +14440,7 @@
       <c r="L82"/>
       <c r="M82"/>
     </row>
-    <row r="83" spans="1:13" s="38" customFormat="1">
+    <row r="83" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="48">
         <v>34973</v>
       </c>
@@ -13490,7 +14466,7 @@
       <c r="L83"/>
       <c r="M83"/>
     </row>
-    <row r="84" spans="1:13" s="38" customFormat="1">
+    <row r="84" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="48">
         <v>35004</v>
       </c>
@@ -13516,7 +14492,7 @@
       <c r="L84"/>
       <c r="M84"/>
     </row>
-    <row r="85" spans="1:13" s="38" customFormat="1">
+    <row r="85" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="48">
         <v>35034</v>
       </c>
@@ -13542,7 +14518,7 @@
       <c r="L85"/>
       <c r="M85"/>
     </row>
-    <row r="86" spans="1:13" s="38" customFormat="1">
+    <row r="86" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="48">
         <v>35065</v>
       </c>
@@ -13568,7 +14544,7 @@
       <c r="L86"/>
       <c r="M86"/>
     </row>
-    <row r="87" spans="1:13" s="38" customFormat="1">
+    <row r="87" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="48">
         <v>35096</v>
       </c>
@@ -13594,7 +14570,7 @@
       <c r="L87"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:13" s="38" customFormat="1">
+    <row r="88" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="48">
         <v>35125</v>
       </c>
@@ -13620,7 +14596,7 @@
       <c r="L88"/>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:13" s="38" customFormat="1">
+    <row r="89" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="48">
         <v>35156</v>
       </c>
@@ -13646,7 +14622,7 @@
       <c r="L89"/>
       <c r="M89"/>
     </row>
-    <row r="90" spans="1:13" s="38" customFormat="1">
+    <row r="90" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="48">
         <v>35186</v>
       </c>
@@ -13672,7 +14648,7 @@
       <c r="L90"/>
       <c r="M90"/>
     </row>
-    <row r="91" spans="1:13" s="38" customFormat="1">
+    <row r="91" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="48">
         <v>35217</v>
       </c>
@@ -13698,7 +14674,7 @@
       <c r="L91"/>
       <c r="M91"/>
     </row>
-    <row r="92" spans="1:13" s="38" customFormat="1">
+    <row r="92" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="48">
         <v>35247</v>
       </c>
@@ -13724,7 +14700,7 @@
       <c r="L92"/>
       <c r="M92"/>
     </row>
-    <row r="93" spans="1:13" s="38" customFormat="1">
+    <row r="93" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="48">
         <v>35278</v>
       </c>
@@ -13750,7 +14726,7 @@
       <c r="L93"/>
       <c r="M93"/>
     </row>
-    <row r="94" spans="1:13" s="38" customFormat="1">
+    <row r="94" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="48">
         <v>35309</v>
       </c>
@@ -13776,7 +14752,7 @@
       <c r="L94"/>
       <c r="M94"/>
     </row>
-    <row r="95" spans="1:13" s="38" customFormat="1">
+    <row r="95" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="48">
         <v>35339</v>
       </c>
@@ -13802,7 +14778,7 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:13" s="38" customFormat="1">
+    <row r="96" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="48">
         <v>35370</v>
       </c>
@@ -13828,7 +14804,7 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="1:13" s="38" customFormat="1">
+    <row r="97" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="48">
         <v>35400</v>
       </c>
@@ -13854,7 +14830,7 @@
       <c r="L97"/>
       <c r="M97"/>
     </row>
-    <row r="98" spans="1:13" s="38" customFormat="1">
+    <row r="98" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="48">
         <v>35431</v>
       </c>
@@ -13880,7 +14856,7 @@
       <c r="L98"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" s="38" customFormat="1">
+    <row r="99" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="48">
         <v>35462</v>
       </c>
@@ -13906,7 +14882,7 @@
       <c r="L99"/>
       <c r="M99"/>
     </row>
-    <row r="100" spans="1:13" s="38" customFormat="1">
+    <row r="100" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="48">
         <v>35490</v>
       </c>
@@ -13932,7 +14908,7 @@
       <c r="L100"/>
       <c r="M100"/>
     </row>
-    <row r="101" spans="1:13" s="38" customFormat="1">
+    <row r="101" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="48">
         <v>35521</v>
       </c>
@@ -13958,7 +14934,7 @@
       <c r="L101"/>
       <c r="M101"/>
     </row>
-    <row r="102" spans="1:13" s="38" customFormat="1">
+    <row r="102" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="48">
         <v>35551</v>
       </c>
@@ -13984,7 +14960,7 @@
       <c r="L102"/>
       <c r="M102"/>
     </row>
-    <row r="103" spans="1:13" s="38" customFormat="1">
+    <row r="103" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="48">
         <v>35582</v>
       </c>
@@ -14010,7 +14986,7 @@
       <c r="L103"/>
       <c r="M103"/>
     </row>
-    <row r="104" spans="1:13" s="38" customFormat="1">
+    <row r="104" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="48">
         <v>35612</v>
       </c>
@@ -14036,7 +15012,7 @@
       <c r="L104"/>
       <c r="M104"/>
     </row>
-    <row r="105" spans="1:13" s="38" customFormat="1">
+    <row r="105" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="48">
         <v>35643</v>
       </c>
@@ -14062,7 +15038,7 @@
       <c r="L105"/>
       <c r="M105"/>
     </row>
-    <row r="106" spans="1:13" s="38" customFormat="1">
+    <row r="106" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="48">
         <v>35674</v>
       </c>
@@ -14088,7 +15064,7 @@
       <c r="L106"/>
       <c r="M106"/>
     </row>
-    <row r="107" spans="1:13" s="38" customFormat="1">
+    <row r="107" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="48">
         <v>35704</v>
       </c>
@@ -14114,7 +15090,7 @@
       <c r="L107"/>
       <c r="M107"/>
     </row>
-    <row r="108" spans="1:13" s="38" customFormat="1">
+    <row r="108" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="48">
         <v>35735</v>
       </c>
@@ -14140,7 +15116,7 @@
       <c r="L108"/>
       <c r="M108"/>
     </row>
-    <row r="109" spans="1:13" s="38" customFormat="1">
+    <row r="109" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="48">
         <v>35765</v>
       </c>
@@ -14166,7 +15142,7 @@
       <c r="L109"/>
       <c r="M109"/>
     </row>
-    <row r="110" spans="1:13" s="38" customFormat="1">
+    <row r="110" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="48">
         <v>35796</v>
       </c>
@@ -14192,7 +15168,7 @@
       <c r="L110"/>
       <c r="M110"/>
     </row>
-    <row r="111" spans="1:13" s="38" customFormat="1">
+    <row r="111" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="48">
         <v>35827</v>
       </c>
@@ -14218,7 +15194,7 @@
       <c r="L111"/>
       <c r="M111"/>
     </row>
-    <row r="112" spans="1:13" s="38" customFormat="1">
+    <row r="112" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="48">
         <v>35855</v>
       </c>
@@ -14244,7 +15220,7 @@
       <c r="L112"/>
       <c r="M112"/>
     </row>
-    <row r="113" spans="1:13" s="38" customFormat="1">
+    <row r="113" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="48">
         <v>35886</v>
       </c>
@@ -14270,7 +15246,7 @@
       <c r="L113"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="1:13" s="38" customFormat="1">
+    <row r="114" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="48">
         <v>35916</v>
       </c>
@@ -14296,7 +15272,7 @@
       <c r="L114"/>
       <c r="M114"/>
     </row>
-    <row r="115" spans="1:13" s="38" customFormat="1">
+    <row r="115" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="48">
         <v>35947</v>
       </c>
@@ -14322,7 +15298,7 @@
       <c r="L115"/>
       <c r="M115"/>
     </row>
-    <row r="116" spans="1:13" s="38" customFormat="1">
+    <row r="116" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="48">
         <v>35977</v>
       </c>
@@ -14348,7 +15324,7 @@
       <c r="L116"/>
       <c r="M116"/>
     </row>
-    <row r="117" spans="1:13" s="38" customFormat="1">
+    <row r="117" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="48">
         <v>36008</v>
       </c>
@@ -14374,7 +15350,7 @@
       <c r="L117"/>
       <c r="M117"/>
     </row>
-    <row r="118" spans="1:13" s="38" customFormat="1">
+    <row r="118" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="48">
         <v>36039</v>
       </c>
@@ -14400,7 +15376,7 @@
       <c r="L118"/>
       <c r="M118"/>
     </row>
-    <row r="119" spans="1:13" s="38" customFormat="1">
+    <row r="119" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="48">
         <v>36069</v>
       </c>
@@ -14426,7 +15402,7 @@
       <c r="L119"/>
       <c r="M119"/>
     </row>
-    <row r="120" spans="1:13" s="38" customFormat="1">
+    <row r="120" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="48">
         <v>36100</v>
       </c>
@@ -14452,7 +15428,7 @@
       <c r="L120"/>
       <c r="M120"/>
     </row>
-    <row r="121" spans="1:13" s="38" customFormat="1">
+    <row r="121" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="48">
         <v>36130</v>
       </c>
@@ -14478,7 +15454,7 @@
       <c r="L121"/>
       <c r="M121"/>
     </row>
-    <row r="122" spans="1:13" s="38" customFormat="1">
+    <row r="122" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="48">
         <v>36161</v>
       </c>
@@ -14504,7 +15480,7 @@
       <c r="L122"/>
       <c r="M122"/>
     </row>
-    <row r="123" spans="1:13" s="38" customFormat="1">
+    <row r="123" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="48">
         <v>36192</v>
       </c>
@@ -14530,7 +15506,7 @@
       <c r="L123"/>
       <c r="M123"/>
     </row>
-    <row r="124" spans="1:13" s="38" customFormat="1">
+    <row r="124" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="48">
         <v>36220</v>
       </c>
@@ -14556,7 +15532,7 @@
       <c r="L124"/>
       <c r="M124"/>
     </row>
-    <row r="125" spans="1:13" s="38" customFormat="1">
+    <row r="125" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="48">
         <v>36251</v>
       </c>
@@ -14582,7 +15558,7 @@
       <c r="L125"/>
       <c r="M125"/>
     </row>
-    <row r="126" spans="1:13" s="38" customFormat="1">
+    <row r="126" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="48">
         <v>36281</v>
       </c>
@@ -14608,7 +15584,7 @@
       <c r="L126"/>
       <c r="M126"/>
     </row>
-    <row r="127" spans="1:13" s="38" customFormat="1">
+    <row r="127" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="48">
         <v>36312</v>
       </c>
@@ -14634,7 +15610,7 @@
       <c r="L127"/>
       <c r="M127"/>
     </row>
-    <row r="128" spans="1:13" s="38" customFormat="1">
+    <row r="128" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="48">
         <v>36342</v>
       </c>
@@ -14660,7 +15636,7 @@
       <c r="L128"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="1:13" s="38" customFormat="1">
+    <row r="129" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="48">
         <v>36373</v>
       </c>
@@ -14686,7 +15662,7 @@
       <c r="L129"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="1:13" s="38" customFormat="1">
+    <row r="130" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="48">
         <v>36404</v>
       </c>
@@ -14712,7 +15688,7 @@
       <c r="L130"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="1:13" s="38" customFormat="1">
+    <row r="131" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="48">
         <v>36434</v>
       </c>
@@ -14738,7 +15714,7 @@
       <c r="L131"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="1:13" s="38" customFormat="1">
+    <row r="132" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="48">
         <v>36465</v>
       </c>
@@ -14764,7 +15740,7 @@
       <c r="L132"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="1:13" s="38" customFormat="1">
+    <row r="133" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="48">
         <v>36495</v>
       </c>
@@ -14790,7 +15766,7 @@
       <c r="L133"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="1:13" s="38" customFormat="1">
+    <row r="134" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="48">
         <v>36526</v>
       </c>
@@ -14816,7 +15792,7 @@
       <c r="L134"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="1:13" s="38" customFormat="1">
+    <row r="135" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="48">
         <v>36557</v>
       </c>
@@ -14842,7 +15818,7 @@
       <c r="L135"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="1:13" s="38" customFormat="1">
+    <row r="136" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="48">
         <v>36586</v>
       </c>
@@ -14868,7 +15844,7 @@
       <c r="L136"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="1:13" s="38" customFormat="1">
+    <row r="137" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="48">
         <v>36617</v>
       </c>
@@ -14894,7 +15870,7 @@
       <c r="L137"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="1:13" s="38" customFormat="1">
+    <row r="138" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="48">
         <v>36647</v>
       </c>
@@ -14920,7 +15896,7 @@
       <c r="L138"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="1:13" s="38" customFormat="1">
+    <row r="139" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="48">
         <v>36678</v>
       </c>
@@ -14946,7 +15922,7 @@
       <c r="L139"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="1:13" s="38" customFormat="1">
+    <row r="140" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="48">
         <v>36708</v>
       </c>
@@ -14972,7 +15948,7 @@
       <c r="L140"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="1:13" s="38" customFormat="1">
+    <row r="141" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="48">
         <v>36739</v>
       </c>
@@ -14998,7 +15974,7 @@
       <c r="L141"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="1:13" s="38" customFormat="1">
+    <row r="142" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="48">
         <v>36770</v>
       </c>
@@ -15024,7 +16000,7 @@
       <c r="L142"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="1:13" s="38" customFormat="1">
+    <row r="143" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="48">
         <v>36800</v>
       </c>
@@ -15050,7 +16026,7 @@
       <c r="L143"/>
       <c r="M143"/>
     </row>
-    <row r="144" spans="1:13" s="38" customFormat="1">
+    <row r="144" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="48">
         <v>36831</v>
       </c>
@@ -15076,7 +16052,7 @@
       <c r="L144"/>
       <c r="M144"/>
     </row>
-    <row r="145" spans="1:13" s="38" customFormat="1">
+    <row r="145" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="48">
         <v>36861</v>
       </c>
@@ -15102,7 +16078,7 @@
       <c r="L145"/>
       <c r="M145"/>
     </row>
-    <row r="146" spans="1:13" s="38" customFormat="1">
+    <row r="146" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="48">
         <v>36892</v>
       </c>
@@ -15128,7 +16104,7 @@
       <c r="L146"/>
       <c r="M146"/>
     </row>
-    <row r="147" spans="1:13" s="38" customFormat="1">
+    <row r="147" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="48">
         <v>36923</v>
       </c>
@@ -15154,7 +16130,7 @@
       <c r="L147"/>
       <c r="M147"/>
     </row>
-    <row r="148" spans="1:13" s="38" customFormat="1">
+    <row r="148" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="48">
         <v>36951</v>
       </c>
@@ -15180,7 +16156,7 @@
       <c r="L148"/>
       <c r="M148"/>
     </row>
-    <row r="149" spans="1:13" s="38" customFormat="1">
+    <row r="149" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="48">
         <v>36982</v>
       </c>
@@ -15206,7 +16182,7 @@
       <c r="L149"/>
       <c r="M149"/>
     </row>
-    <row r="150" spans="1:13" s="38" customFormat="1">
+    <row r="150" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="48">
         <v>37012</v>
       </c>
@@ -15232,7 +16208,7 @@
       <c r="L150"/>
       <c r="M150"/>
     </row>
-    <row r="151" spans="1:13" s="38" customFormat="1">
+    <row r="151" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="48">
         <v>37043</v>
       </c>
@@ -15258,7 +16234,7 @@
       <c r="L151"/>
       <c r="M151"/>
     </row>
-    <row r="152" spans="1:13" s="38" customFormat="1">
+    <row r="152" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="48">
         <v>37073</v>
       </c>
@@ -15284,7 +16260,7 @@
       <c r="L152"/>
       <c r="M152"/>
     </row>
-    <row r="153" spans="1:13" s="38" customFormat="1">
+    <row r="153" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="48">
         <v>37104</v>
       </c>
@@ -15310,7 +16286,7 @@
       <c r="L153"/>
       <c r="M153"/>
     </row>
-    <row r="154" spans="1:13" s="38" customFormat="1">
+    <row r="154" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="48">
         <v>37135</v>
       </c>
@@ -15336,7 +16312,7 @@
       <c r="L154"/>
       <c r="M154"/>
     </row>
-    <row r="155" spans="1:13" s="38" customFormat="1">
+    <row r="155" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="48">
         <v>37165</v>
       </c>
@@ -15362,7 +16338,7 @@
       <c r="L155"/>
       <c r="M155"/>
     </row>
-    <row r="156" spans="1:13" s="38" customFormat="1">
+    <row r="156" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="48">
         <v>37196</v>
       </c>
@@ -15388,7 +16364,7 @@
       <c r="L156"/>
       <c r="M156"/>
     </row>
-    <row r="157" spans="1:13" s="38" customFormat="1">
+    <row r="157" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="48">
         <v>37226</v>
       </c>
@@ -15414,7 +16390,7 @@
       <c r="L157"/>
       <c r="M157"/>
     </row>
-    <row r="158" spans="1:13" s="38" customFormat="1">
+    <row r="158" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="48">
         <v>37257</v>
       </c>
@@ -15440,7 +16416,7 @@
       <c r="L158"/>
       <c r="M158"/>
     </row>
-    <row r="159" spans="1:13" s="38" customFormat="1">
+    <row r="159" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="48">
         <v>37288</v>
       </c>
@@ -15466,7 +16442,7 @@
       <c r="L159"/>
       <c r="M159"/>
     </row>
-    <row r="160" spans="1:13" s="38" customFormat="1">
+    <row r="160" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="48">
         <v>37316</v>
       </c>
@@ -15492,7 +16468,7 @@
       <c r="L160"/>
       <c r="M160"/>
     </row>
-    <row r="161" spans="1:13" s="38" customFormat="1">
+    <row r="161" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="48">
         <v>37347</v>
       </c>
@@ -15518,7 +16494,7 @@
       <c r="L161"/>
       <c r="M161"/>
     </row>
-    <row r="162" spans="1:13" s="38" customFormat="1">
+    <row r="162" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="48">
         <v>37377</v>
       </c>
@@ -15544,7 +16520,7 @@
       <c r="L162"/>
       <c r="M162"/>
     </row>
-    <row r="163" spans="1:13" s="38" customFormat="1">
+    <row r="163" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="48">
         <v>37408</v>
       </c>
@@ -15570,7 +16546,7 @@
       <c r="L163"/>
       <c r="M163"/>
     </row>
-    <row r="164" spans="1:13" s="38" customFormat="1">
+    <row r="164" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="48">
         <v>37438</v>
       </c>
@@ -15596,7 +16572,7 @@
       <c r="L164"/>
       <c r="M164"/>
     </row>
-    <row r="165" spans="1:13" s="38" customFormat="1">
+    <row r="165" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="48">
         <v>37469</v>
       </c>
@@ -15622,7 +16598,7 @@
       <c r="L165"/>
       <c r="M165"/>
     </row>
-    <row r="166" spans="1:13" s="38" customFormat="1">
+    <row r="166" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="48">
         <v>37500</v>
       </c>
@@ -15648,7 +16624,7 @@
       <c r="L166"/>
       <c r="M166"/>
     </row>
-    <row r="167" spans="1:13" s="38" customFormat="1">
+    <row r="167" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="48">
         <v>37530</v>
       </c>
@@ -15674,7 +16650,7 @@
       <c r="L167"/>
       <c r="M167"/>
     </row>
-    <row r="168" spans="1:13" s="38" customFormat="1">
+    <row r="168" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="48">
         <v>37561</v>
       </c>
@@ -15700,7 +16676,7 @@
       <c r="L168"/>
       <c r="M168"/>
     </row>
-    <row r="169" spans="1:13" s="38" customFormat="1">
+    <row r="169" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="48">
         <v>37591</v>
       </c>
@@ -15726,7 +16702,7 @@
       <c r="L169"/>
       <c r="M169"/>
     </row>
-    <row r="170" spans="1:13" s="38" customFormat="1">
+    <row r="170" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="48">
         <v>37622</v>
       </c>
@@ -15752,7 +16728,7 @@
       <c r="L170"/>
       <c r="M170"/>
     </row>
-    <row r="171" spans="1:13" s="38" customFormat="1">
+    <row r="171" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="48">
         <v>37653</v>
       </c>
@@ -15778,7 +16754,7 @@
       <c r="L171"/>
       <c r="M171"/>
     </row>
-    <row r="172" spans="1:13" s="38" customFormat="1">
+    <row r="172" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="48">
         <v>37681</v>
       </c>
@@ -15804,7 +16780,7 @@
       <c r="L172"/>
       <c r="M172"/>
     </row>
-    <row r="173" spans="1:13" s="38" customFormat="1">
+    <row r="173" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="48">
         <v>37712</v>
       </c>
@@ -15830,7 +16806,7 @@
       <c r="L173"/>
       <c r="M173"/>
     </row>
-    <row r="174" spans="1:13" s="38" customFormat="1">
+    <row r="174" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="48">
         <v>37742</v>
       </c>
@@ -15856,7 +16832,7 @@
       <c r="L174"/>
       <c r="M174"/>
     </row>
-    <row r="175" spans="1:13" s="38" customFormat="1">
+    <row r="175" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="48">
         <v>37773</v>
       </c>
@@ -15882,7 +16858,7 @@
       <c r="L175"/>
       <c r="M175"/>
     </row>
-    <row r="176" spans="1:13" s="38" customFormat="1">
+    <row r="176" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="48">
         <v>37803</v>
       </c>
@@ -15908,7 +16884,7 @@
       <c r="L176"/>
       <c r="M176"/>
     </row>
-    <row r="177" spans="1:13" s="38" customFormat="1">
+    <row r="177" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="48">
         <v>37834</v>
       </c>
@@ -15934,7 +16910,7 @@
       <c r="L177"/>
       <c r="M177"/>
     </row>
-    <row r="178" spans="1:13" s="38" customFormat="1">
+    <row r="178" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="48">
         <v>37865</v>
       </c>
@@ -15960,7 +16936,7 @@
       <c r="L178"/>
       <c r="M178"/>
     </row>
-    <row r="179" spans="1:13" s="38" customFormat="1">
+    <row r="179" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="48">
         <v>37895</v>
       </c>
@@ -15986,7 +16962,7 @@
       <c r="L179"/>
       <c r="M179"/>
     </row>
-    <row r="180" spans="1:13" s="38" customFormat="1">
+    <row r="180" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="48">
         <v>37926</v>
       </c>
@@ -16012,7 +16988,7 @@
       <c r="L180"/>
       <c r="M180"/>
     </row>
-    <row r="181" spans="1:13" s="38" customFormat="1">
+    <row r="181" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="48">
         <v>37956</v>
       </c>
@@ -16038,7 +17014,7 @@
       <c r="L181"/>
       <c r="M181"/>
     </row>
-    <row r="182" spans="1:13" s="38" customFormat="1">
+    <row r="182" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="48">
         <v>37987</v>
       </c>
@@ -16064,7 +17040,7 @@
       <c r="L182"/>
       <c r="M182"/>
     </row>
-    <row r="183" spans="1:13" s="38" customFormat="1">
+    <row r="183" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="48">
         <v>38018</v>
       </c>
@@ -16090,7 +17066,7 @@
       <c r="L183"/>
       <c r="M183"/>
     </row>
-    <row r="184" spans="1:13" s="38" customFormat="1">
+    <row r="184" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="48">
         <v>38047</v>
       </c>
@@ -16116,7 +17092,7 @@
       <c r="L184"/>
       <c r="M184"/>
     </row>
-    <row r="185" spans="1:13" s="38" customFormat="1">
+    <row r="185" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="48">
         <v>38078</v>
       </c>
@@ -16142,7 +17118,7 @@
       <c r="L185"/>
       <c r="M185"/>
     </row>
-    <row r="186" spans="1:13" s="38" customFormat="1">
+    <row r="186" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="48">
         <v>38108</v>
       </c>
@@ -16168,7 +17144,7 @@
       <c r="L186"/>
       <c r="M186"/>
     </row>
-    <row r="187" spans="1:13" s="38" customFormat="1">
+    <row r="187" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="48">
         <v>38139</v>
       </c>
@@ -16194,7 +17170,7 @@
       <c r="L187"/>
       <c r="M187"/>
     </row>
-    <row r="188" spans="1:13" s="38" customFormat="1">
+    <row r="188" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="48">
         <v>38169</v>
       </c>
@@ -16220,7 +17196,7 @@
       <c r="L188"/>
       <c r="M188"/>
     </row>
-    <row r="189" spans="1:13" s="38" customFormat="1">
+    <row r="189" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="48">
         <v>38200</v>
       </c>
@@ -16246,7 +17222,7 @@
       <c r="L189"/>
       <c r="M189"/>
     </row>
-    <row r="190" spans="1:13" s="38" customFormat="1">
+    <row r="190" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="48">
         <v>38231</v>
       </c>
@@ -16272,7 +17248,7 @@
       <c r="L190"/>
       <c r="M190"/>
     </row>
-    <row r="191" spans="1:13" s="38" customFormat="1">
+    <row r="191" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="48">
         <v>38261</v>
       </c>
@@ -16298,7 +17274,7 @@
       <c r="L191"/>
       <c r="M191"/>
     </row>
-    <row r="192" spans="1:13" s="38" customFormat="1">
+    <row r="192" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="48">
         <v>38292</v>
       </c>
@@ -16324,7 +17300,7 @@
       <c r="L192"/>
       <c r="M192"/>
     </row>
-    <row r="193" spans="1:13" s="38" customFormat="1">
+    <row r="193" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="48">
         <v>38322</v>
       </c>
@@ -16350,7 +17326,7 @@
       <c r="L193"/>
       <c r="M193"/>
     </row>
-    <row r="194" spans="1:13" s="38" customFormat="1">
+    <row r="194" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="48">
         <v>38353</v>
       </c>
@@ -16376,7 +17352,7 @@
       <c r="L194"/>
       <c r="M194"/>
     </row>
-    <row r="195" spans="1:13" s="38" customFormat="1">
+    <row r="195" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="48">
         <v>38384</v>
       </c>
@@ -16402,7 +17378,7 @@
       <c r="L195"/>
       <c r="M195"/>
     </row>
-    <row r="196" spans="1:13" s="38" customFormat="1">
+    <row r="196" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="48">
         <v>38412</v>
       </c>
@@ -16428,7 +17404,7 @@
       <c r="L196"/>
       <c r="M196"/>
     </row>
-    <row r="197" spans="1:13" s="38" customFormat="1">
+    <row r="197" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="48">
         <v>38443</v>
       </c>
@@ -16454,7 +17430,7 @@
       <c r="L197"/>
       <c r="M197"/>
     </row>
-    <row r="198" spans="1:13" s="38" customFormat="1">
+    <row r="198" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="48">
         <v>38473</v>
       </c>
@@ -16480,7 +17456,7 @@
       <c r="L198"/>
       <c r="M198"/>
     </row>
-    <row r="199" spans="1:13" s="38" customFormat="1">
+    <row r="199" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="48">
         <v>38504</v>
       </c>
@@ -16506,7 +17482,7 @@
       <c r="L199"/>
       <c r="M199"/>
     </row>
-    <row r="200" spans="1:13" s="38" customFormat="1">
+    <row r="200" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="48">
         <v>38534</v>
       </c>
@@ -16532,7 +17508,7 @@
       <c r="L200"/>
       <c r="M200"/>
     </row>
-    <row r="201" spans="1:13" s="38" customFormat="1">
+    <row r="201" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="48">
         <v>38565</v>
       </c>
@@ -16558,7 +17534,7 @@
       <c r="L201"/>
       <c r="M201"/>
     </row>
-    <row r="202" spans="1:13" s="38" customFormat="1">
+    <row r="202" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="48">
         <v>38596</v>
       </c>
@@ -16584,7 +17560,7 @@
       <c r="L202"/>
       <c r="M202"/>
     </row>
-    <row r="203" spans="1:13" s="38" customFormat="1">
+    <row r="203" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="48">
         <v>38626</v>
       </c>
@@ -16610,7 +17586,7 @@
       <c r="L203"/>
       <c r="M203"/>
     </row>
-    <row r="204" spans="1:13" s="38" customFormat="1">
+    <row r="204" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="48">
         <v>38657</v>
       </c>
@@ -16636,7 +17612,7 @@
       <c r="L204"/>
       <c r="M204"/>
     </row>
-    <row r="205" spans="1:13" s="38" customFormat="1">
+    <row r="205" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="48">
         <v>38687</v>
       </c>
@@ -16662,7 +17638,7 @@
       <c r="L205"/>
       <c r="M205"/>
     </row>
-    <row r="206" spans="1:13" s="38" customFormat="1">
+    <row r="206" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="48">
         <v>38718</v>
       </c>
@@ -16688,7 +17664,7 @@
       <c r="L206"/>
       <c r="M206"/>
     </row>
-    <row r="207" spans="1:13" s="38" customFormat="1">
+    <row r="207" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="48">
         <v>38749</v>
       </c>
@@ -16714,7 +17690,7 @@
       <c r="L207"/>
       <c r="M207"/>
     </row>
-    <row r="208" spans="1:13" s="38" customFormat="1">
+    <row r="208" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="48">
         <v>38777</v>
       </c>
@@ -16740,7 +17716,7 @@
       <c r="L208"/>
       <c r="M208"/>
     </row>
-    <row r="209" spans="1:13" s="38" customFormat="1">
+    <row r="209" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="48">
         <v>38808</v>
       </c>
@@ -16766,7 +17742,7 @@
       <c r="L209"/>
       <c r="M209"/>
     </row>
-    <row r="210" spans="1:13" s="38" customFormat="1">
+    <row r="210" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="48">
         <v>38838</v>
       </c>
@@ -16792,7 +17768,7 @@
       <c r="L210"/>
       <c r="M210"/>
     </row>
-    <row r="211" spans="1:13" s="38" customFormat="1">
+    <row r="211" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="48">
         <v>38869</v>
       </c>
@@ -16818,7 +17794,7 @@
       <c r="L211"/>
       <c r="M211"/>
     </row>
-    <row r="212" spans="1:13" s="38" customFormat="1">
+    <row r="212" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="48">
         <v>38899</v>
       </c>
@@ -16844,7 +17820,7 @@
       <c r="L212"/>
       <c r="M212"/>
     </row>
-    <row r="213" spans="1:13" s="38" customFormat="1">
+    <row r="213" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="48">
         <v>38930</v>
       </c>
@@ -16870,7 +17846,7 @@
       <c r="L213"/>
       <c r="M213"/>
     </row>
-    <row r="214" spans="1:13" s="38" customFormat="1">
+    <row r="214" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="48">
         <v>38961</v>
       </c>
@@ -16896,7 +17872,7 @@
       <c r="L214"/>
       <c r="M214"/>
     </row>
-    <row r="215" spans="1:13" s="38" customFormat="1">
+    <row r="215" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="48">
         <v>38991</v>
       </c>
@@ -16922,7 +17898,7 @@
       <c r="L215"/>
       <c r="M215"/>
     </row>
-    <row r="216" spans="1:13" s="38" customFormat="1">
+    <row r="216" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="48">
         <v>39022</v>
       </c>
@@ -16948,7 +17924,7 @@
       <c r="L216"/>
       <c r="M216"/>
     </row>
-    <row r="217" spans="1:13" s="38" customFormat="1">
+    <row r="217" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="48">
         <v>39052</v>
       </c>
@@ -16974,7 +17950,7 @@
       <c r="L217"/>
       <c r="M217"/>
     </row>
-    <row r="218" spans="1:13" s="38" customFormat="1">
+    <row r="218" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="48">
         <v>39083</v>
       </c>
@@ -17000,7 +17976,7 @@
       <c r="L218"/>
       <c r="M218"/>
     </row>
-    <row r="219" spans="1:13" s="38" customFormat="1">
+    <row r="219" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="48">
         <v>39114</v>
       </c>
@@ -17026,7 +18002,7 @@
       <c r="L219"/>
       <c r="M219"/>
     </row>
-    <row r="220" spans="1:13" s="38" customFormat="1">
+    <row r="220" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="48">
         <v>39142</v>
       </c>
@@ -17052,7 +18028,7 @@
       <c r="L220"/>
       <c r="M220"/>
     </row>
-    <row r="221" spans="1:13" s="38" customFormat="1">
+    <row r="221" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="48">
         <v>39173</v>
       </c>
@@ -17078,7 +18054,7 @@
       <c r="L221"/>
       <c r="M221"/>
     </row>
-    <row r="222" spans="1:13" s="38" customFormat="1">
+    <row r="222" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="48">
         <v>39203</v>
       </c>
@@ -17104,7 +18080,7 @@
       <c r="L222"/>
       <c r="M222"/>
     </row>
-    <row r="223" spans="1:13" s="38" customFormat="1">
+    <row r="223" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="48">
         <v>39234</v>
       </c>
@@ -17130,7 +18106,7 @@
       <c r="L223"/>
       <c r="M223"/>
     </row>
-    <row r="224" spans="1:13" s="38" customFormat="1">
+    <row r="224" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="48">
         <v>39264</v>
       </c>
@@ -17156,7 +18132,7 @@
       <c r="L224"/>
       <c r="M224"/>
     </row>
-    <row r="225" spans="1:13" s="38" customFormat="1">
+    <row r="225" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="48">
         <v>39295</v>
       </c>
@@ -17182,7 +18158,7 @@
       <c r="L225"/>
       <c r="M225"/>
     </row>
-    <row r="226" spans="1:13" s="38" customFormat="1">
+    <row r="226" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="48">
         <v>39326</v>
       </c>
@@ -17208,7 +18184,7 @@
       <c r="L226"/>
       <c r="M226"/>
     </row>
-    <row r="227" spans="1:13" s="38" customFormat="1">
+    <row r="227" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="48">
         <v>39356</v>
       </c>
@@ -17234,7 +18210,7 @@
       <c r="L227"/>
       <c r="M227"/>
     </row>
-    <row r="228" spans="1:13" s="38" customFormat="1">
+    <row r="228" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="48">
         <v>39387</v>
       </c>
@@ -17260,7 +18236,7 @@
       <c r="L228"/>
       <c r="M228"/>
     </row>
-    <row r="229" spans="1:13" s="38" customFormat="1">
+    <row r="229" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="48">
         <v>39417</v>
       </c>
@@ -17286,7 +18262,7 @@
       <c r="L229"/>
       <c r="M229"/>
     </row>
-    <row r="230" spans="1:13" s="38" customFormat="1">
+    <row r="230" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="48">
         <v>39448</v>
       </c>
@@ -17312,7 +18288,7 @@
       <c r="L230"/>
       <c r="M230"/>
     </row>
-    <row r="231" spans="1:13" s="38" customFormat="1">
+    <row r="231" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="48">
         <v>39479</v>
       </c>
@@ -17338,7 +18314,7 @@
       <c r="L231"/>
       <c r="M231"/>
     </row>
-    <row r="232" spans="1:13" s="38" customFormat="1">
+    <row r="232" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="48">
         <v>39508</v>
       </c>
@@ -17364,7 +18340,7 @@
       <c r="L232"/>
       <c r="M232"/>
     </row>
-    <row r="233" spans="1:13" s="38" customFormat="1">
+    <row r="233" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="48">
         <v>39539</v>
       </c>
@@ -17390,7 +18366,7 @@
       <c r="L233"/>
       <c r="M233"/>
     </row>
-    <row r="234" spans="1:13" s="38" customFormat="1">
+    <row r="234" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="48">
         <v>39569</v>
       </c>
@@ -17416,7 +18392,7 @@
       <c r="L234"/>
       <c r="M234"/>
     </row>
-    <row r="235" spans="1:13" s="38" customFormat="1">
+    <row r="235" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="48">
         <v>39600</v>
       </c>
@@ -17442,7 +18418,7 @@
       <c r="L235"/>
       <c r="M235"/>
     </row>
-    <row r="236" spans="1:13" s="38" customFormat="1">
+    <row r="236" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="48">
         <v>39630</v>
       </c>
@@ -17468,7 +18444,7 @@
       <c r="L236"/>
       <c r="M236"/>
     </row>
-    <row r="237" spans="1:13" s="38" customFormat="1">
+    <row r="237" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="48">
         <v>39661</v>
       </c>
@@ -17494,7 +18470,7 @@
       <c r="L237"/>
       <c r="M237"/>
     </row>
-    <row r="238" spans="1:13" s="38" customFormat="1">
+    <row r="238" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="48">
         <v>39692</v>
       </c>
@@ -17520,7 +18496,7 @@
       <c r="L238"/>
       <c r="M238"/>
     </row>
-    <row r="239" spans="1:13" s="38" customFormat="1">
+    <row r="239" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="48">
         <v>39722</v>
       </c>
@@ -17546,7 +18522,7 @@
       <c r="L239"/>
       <c r="M239"/>
     </row>
-    <row r="240" spans="1:13" s="38" customFormat="1">
+    <row r="240" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="48">
         <v>39753</v>
       </c>
@@ -17572,7 +18548,7 @@
       <c r="L240"/>
       <c r="M240"/>
     </row>
-    <row r="241" spans="1:13" s="38" customFormat="1">
+    <row r="241" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="48">
         <v>39783</v>
       </c>
@@ -17598,7 +18574,7 @@
       <c r="L241"/>
       <c r="M241"/>
     </row>
-    <row r="242" spans="1:13" s="38" customFormat="1">
+    <row r="242" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="48">
         <v>39814</v>
       </c>
@@ -17624,7 +18600,7 @@
       <c r="L242"/>
       <c r="M242"/>
     </row>
-    <row r="243" spans="1:13" s="38" customFormat="1">
+    <row r="243" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="48">
         <v>39845</v>
       </c>
@@ -17650,7 +18626,7 @@
       <c r="L243"/>
       <c r="M243"/>
     </row>
-    <row r="244" spans="1:13" s="38" customFormat="1">
+    <row r="244" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="48">
         <v>39873</v>
       </c>
@@ -17676,7 +18652,7 @@
       <c r="L244"/>
       <c r="M244"/>
     </row>
-    <row r="245" spans="1:13" s="38" customFormat="1">
+    <row r="245" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="48">
         <v>39904</v>
       </c>
@@ -17702,7 +18678,7 @@
       <c r="L245"/>
       <c r="M245"/>
     </row>
-    <row r="246" spans="1:13" s="38" customFormat="1">
+    <row r="246" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="48">
         <v>39934</v>
       </c>
@@ -17728,7 +18704,7 @@
       <c r="L246"/>
       <c r="M246"/>
     </row>
-    <row r="247" spans="1:13" s="38" customFormat="1">
+    <row r="247" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="48">
         <v>39965</v>
       </c>
@@ -17754,7 +18730,7 @@
       <c r="L247"/>
       <c r="M247"/>
     </row>
-    <row r="248" spans="1:13" s="38" customFormat="1">
+    <row r="248" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="48">
         <v>39995</v>
       </c>
@@ -17780,7 +18756,7 @@
       <c r="L248"/>
       <c r="M248"/>
     </row>
-    <row r="249" spans="1:13" s="38" customFormat="1">
+    <row r="249" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="48">
         <v>40026</v>
       </c>
@@ -17806,7 +18782,7 @@
       <c r="L249"/>
       <c r="M249"/>
     </row>
-    <row r="250" spans="1:13" s="38" customFormat="1">
+    <row r="250" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="48">
         <v>40057</v>
       </c>
@@ -17832,7 +18808,7 @@
       <c r="L250"/>
       <c r="M250"/>
     </row>
-    <row r="251" spans="1:13" s="38" customFormat="1">
+    <row r="251" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="48">
         <v>40087</v>
       </c>
@@ -17858,7 +18834,7 @@
       <c r="L251"/>
       <c r="M251"/>
     </row>
-    <row r="252" spans="1:13" s="38" customFormat="1">
+    <row r="252" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="48">
         <v>40118</v>
       </c>
@@ -17884,7 +18860,7 @@
       <c r="L252"/>
       <c r="M252"/>
     </row>
-    <row r="253" spans="1:13" s="38" customFormat="1">
+    <row r="253" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="48">
         <v>40148</v>
       </c>
@@ -17910,7 +18886,7 @@
       <c r="L253"/>
       <c r="M253"/>
     </row>
-    <row r="254" spans="1:13" s="38" customFormat="1">
+    <row r="254" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="48">
         <v>40179</v>
       </c>
@@ -17936,7 +18912,7 @@
       <c r="L254"/>
       <c r="M254"/>
     </row>
-    <row r="255" spans="1:13" s="38" customFormat="1">
+    <row r="255" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="48">
         <v>40210</v>
       </c>
@@ -17962,7 +18938,7 @@
       <c r="L255"/>
       <c r="M255"/>
     </row>
-    <row r="256" spans="1:13" s="38" customFormat="1">
+    <row r="256" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="48">
         <v>40238</v>
       </c>
@@ -17988,7 +18964,7 @@
       <c r="L256"/>
       <c r="M256"/>
     </row>
-    <row r="257" spans="1:13" s="38" customFormat="1">
+    <row r="257" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="48">
         <v>40269</v>
       </c>
@@ -18014,7 +18990,7 @@
       <c r="L257"/>
       <c r="M257"/>
     </row>
-    <row r="258" spans="1:13" s="38" customFormat="1">
+    <row r="258" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="48">
         <v>40299</v>
       </c>
@@ -18040,7 +19016,7 @@
       <c r="L258"/>
       <c r="M258"/>
     </row>
-    <row r="259" spans="1:13" s="38" customFormat="1">
+    <row r="259" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="48">
         <v>40330</v>
       </c>
@@ -18066,7 +19042,7 @@
       <c r="L259"/>
       <c r="M259"/>
     </row>
-    <row r="260" spans="1:13" s="38" customFormat="1">
+    <row r="260" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="48">
         <v>40360</v>
       </c>
@@ -18092,7 +19068,7 @@
       <c r="L260"/>
       <c r="M260"/>
     </row>
-    <row r="261" spans="1:13" s="38" customFormat="1">
+    <row r="261" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="48">
         <v>40391</v>
       </c>
@@ -18118,7 +19094,7 @@
       <c r="L261"/>
       <c r="M261"/>
     </row>
-    <row r="262" spans="1:13" s="38" customFormat="1">
+    <row r="262" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="48">
         <v>40422</v>
       </c>
@@ -18144,7 +19120,7 @@
       <c r="L262"/>
       <c r="M262"/>
     </row>
-    <row r="263" spans="1:13" s="38" customFormat="1">
+    <row r="263" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="48">
         <v>40452</v>
       </c>
@@ -18170,7 +19146,7 @@
       <c r="L263"/>
       <c r="M263"/>
     </row>
-    <row r="264" spans="1:13" s="38" customFormat="1">
+    <row r="264" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="48">
         <v>40483</v>
       </c>
@@ -18196,7 +19172,7 @@
       <c r="L264"/>
       <c r="M264"/>
     </row>
-    <row r="265" spans="1:13" s="38" customFormat="1">
+    <row r="265" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="48">
         <v>40513</v>
       </c>
@@ -18222,7 +19198,7 @@
       <c r="L265"/>
       <c r="M265"/>
     </row>
-    <row r="266" spans="1:13" s="38" customFormat="1">
+    <row r="266" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="48">
         <v>40544</v>
       </c>
@@ -18248,7 +19224,7 @@
       <c r="L266"/>
       <c r="M266"/>
     </row>
-    <row r="267" spans="1:13" s="38" customFormat="1">
+    <row r="267" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="48">
         <v>40575</v>
       </c>
@@ -18274,7 +19250,7 @@
       <c r="L267"/>
       <c r="M267"/>
     </row>
-    <row r="268" spans="1:13" s="38" customFormat="1">
+    <row r="268" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="48">
         <v>40603</v>
       </c>
@@ -18300,7 +19276,7 @@
       <c r="L268"/>
       <c r="M268"/>
     </row>
-    <row r="269" spans="1:13" s="38" customFormat="1">
+    <row r="269" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="48">
         <v>40634</v>
       </c>
@@ -18326,7 +19302,7 @@
       <c r="L269"/>
       <c r="M269"/>
     </row>
-    <row r="270" spans="1:13" s="38" customFormat="1">
+    <row r="270" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="48">
         <v>40664</v>
       </c>
@@ -18352,7 +19328,7 @@
       <c r="L270"/>
       <c r="M270"/>
     </row>
-    <row r="271" spans="1:13" s="38" customFormat="1">
+    <row r="271" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="48">
         <v>40695</v>
       </c>
@@ -18378,7 +19354,7 @@
       <c r="L271"/>
       <c r="M271"/>
     </row>
-    <row r="272" spans="1:13" s="38" customFormat="1">
+    <row r="272" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="48">
         <v>40725</v>
       </c>
@@ -18404,7 +19380,7 @@
       <c r="L272"/>
       <c r="M272"/>
     </row>
-    <row r="273" spans="1:13" s="38" customFormat="1">
+    <row r="273" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="48">
         <v>40756</v>
       </c>
@@ -18430,7 +19406,7 @@
       <c r="L273"/>
       <c r="M273"/>
     </row>
-    <row r="274" spans="1:13" s="38" customFormat="1">
+    <row r="274" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="48">
         <v>40787</v>
       </c>
@@ -18456,7 +19432,7 @@
       <c r="L274"/>
       <c r="M274"/>
     </row>
-    <row r="275" spans="1:13" s="38" customFormat="1">
+    <row r="275" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="48">
         <v>40817</v>
       </c>
@@ -18482,7 +19458,7 @@
       <c r="L275"/>
       <c r="M275"/>
     </row>
-    <row r="276" spans="1:13" s="38" customFormat="1">
+    <row r="276" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="48">
         <v>40848</v>
       </c>
@@ -18508,7 +19484,7 @@
       <c r="L276"/>
       <c r="M276"/>
     </row>
-    <row r="277" spans="1:13" s="38" customFormat="1">
+    <row r="277" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="48">
         <v>40878</v>
       </c>
@@ -18534,7 +19510,7 @@
       <c r="L277"/>
       <c r="M277"/>
     </row>
-    <row r="278" spans="1:13" s="38" customFormat="1">
+    <row r="278" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="48">
         <v>40909</v>
       </c>
@@ -18560,7 +19536,7 @@
       <c r="L278"/>
       <c r="M278"/>
     </row>
-    <row r="279" spans="1:13" s="38" customFormat="1">
+    <row r="279" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="48">
         <v>40940</v>
       </c>
@@ -18586,7 +19562,7 @@
       <c r="L279"/>
       <c r="M279"/>
     </row>
-    <row r="280" spans="1:13" s="38" customFormat="1">
+    <row r="280" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="48">
         <v>40969</v>
       </c>
@@ -18612,7 +19588,7 @@
       <c r="L280"/>
       <c r="M280"/>
     </row>
-    <row r="281" spans="1:13" s="38" customFormat="1">
+    <row r="281" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="48">
         <v>41000</v>
       </c>
@@ -18638,7 +19614,7 @@
       <c r="L281"/>
       <c r="M281"/>
     </row>
-    <row r="282" spans="1:13" s="38" customFormat="1">
+    <row r="282" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="48">
         <v>41030</v>
       </c>
@@ -18664,7 +19640,7 @@
       <c r="L282"/>
       <c r="M282"/>
     </row>
-    <row r="283" spans="1:13" s="38" customFormat="1">
+    <row r="283" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="48">
         <v>41061</v>
       </c>
@@ -18690,7 +19666,7 @@
       <c r="L283"/>
       <c r="M283"/>
     </row>
-    <row r="284" spans="1:13" s="38" customFormat="1">
+    <row r="284" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="48">
         <v>41091</v>
       </c>
@@ -18716,7 +19692,7 @@
       <c r="L284"/>
       <c r="M284"/>
     </row>
-    <row r="285" spans="1:13" s="38" customFormat="1">
+    <row r="285" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="48">
         <v>41122</v>
       </c>
@@ -18742,7 +19718,7 @@
       <c r="L285"/>
       <c r="M285"/>
     </row>
-    <row r="286" spans="1:13" s="38" customFormat="1">
+    <row r="286" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="48">
         <v>41153</v>
       </c>
@@ -18768,7 +19744,7 @@
       <c r="L286"/>
       <c r="M286"/>
     </row>
-    <row r="287" spans="1:13" s="38" customFormat="1">
+    <row r="287" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="48">
         <v>41183</v>
       </c>
@@ -18794,7 +19770,7 @@
       <c r="L287"/>
       <c r="M287"/>
     </row>
-    <row r="288" spans="1:13" s="38" customFormat="1">
+    <row r="288" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="48">
         <v>41214</v>
       </c>
@@ -18820,7 +19796,7 @@
       <c r="L288"/>
       <c r="M288"/>
     </row>
-    <row r="289" spans="1:13" s="38" customFormat="1">
+    <row r="289" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="48">
         <v>41244</v>
       </c>
@@ -18846,7 +19822,7 @@
       <c r="L289"/>
       <c r="M289"/>
     </row>
-    <row r="290" spans="1:13" s="38" customFormat="1">
+    <row r="290" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="48">
         <v>41275</v>
       </c>
@@ -18872,7 +19848,7 @@
       <c r="L290"/>
       <c r="M290"/>
     </row>
-    <row r="291" spans="1:13" s="38" customFormat="1">
+    <row r="291" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="48">
         <v>41306</v>
       </c>
@@ -18898,7 +19874,7 @@
       <c r="L291"/>
       <c r="M291"/>
     </row>
-    <row r="292" spans="1:13" s="38" customFormat="1">
+    <row r="292" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="48">
         <v>41334</v>
       </c>
@@ -18924,7 +19900,7 @@
       <c r="L292"/>
       <c r="M292"/>
     </row>
-    <row r="293" spans="1:13" s="38" customFormat="1">
+    <row r="293" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="48">
         <v>41365</v>
       </c>
@@ -18950,7 +19926,7 @@
       <c r="L293"/>
       <c r="M293"/>
     </row>
-    <row r="294" spans="1:13" s="38" customFormat="1">
+    <row r="294" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="48">
         <v>41395</v>
       </c>
@@ -18976,7 +19952,7 @@
       <c r="L294"/>
       <c r="M294"/>
     </row>
-    <row r="295" spans="1:13" s="38" customFormat="1">
+    <row r="295" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="48">
         <v>41426</v>
       </c>
@@ -19002,7 +19978,7 @@
       <c r="L295"/>
       <c r="M295"/>
     </row>
-    <row r="296" spans="1:13" s="38" customFormat="1">
+    <row r="296" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="48">
         <v>41456</v>
       </c>
@@ -19028,7 +20004,7 @@
       <c r="L296"/>
       <c r="M296"/>
     </row>
-    <row r="297" spans="1:13" s="38" customFormat="1">
+    <row r="297" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="48">
         <v>41487</v>
       </c>
@@ -19054,7 +20030,7 @@
       <c r="L297"/>
       <c r="M297"/>
     </row>
-    <row r="298" spans="1:13" s="38" customFormat="1">
+    <row r="298" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="48">
         <v>41518</v>
       </c>
@@ -19077,7 +20053,7 @@
       <c r="L298"/>
       <c r="M298"/>
     </row>
-    <row r="299" spans="1:13" s="38" customFormat="1">
+    <row r="299" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="48">
         <v>41548</v>
       </c>
@@ -19108,12 +20084,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
